--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3172569.945081044</v>
+        <v>3170056.131468911</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291611.4305646436</v>
+        <v>291611.4305646404</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8200824.831007853</v>
+        <v>8200824.831007854</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,70 +741,70 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4.018462044011844</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,64 +823,64 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
+        <v>4.018462044011843</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,73 +972,73 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="S6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,58 +1054,58 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1151,41 +1151,41 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,73 +1209,73 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.05642108929943</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,58 +1297,58 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F10" t="n">
+      <c r="R10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>6.05642108929943</v>
-      </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.34597149883484</v>
+        <v>60.34947858382112</v>
       </c>
       <c r="T11" t="n">
         <v>168.8058392537717</v>
@@ -1436,7 +1436,7 @@
         <v>337.8827520725912</v>
       </c>
       <c r="Y11" t="n">
-        <v>354.3895900501758</v>
+        <v>343.3860829651908</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.6005479842623</v>
       </c>
       <c r="H12" t="n">
-        <v>85.74413663981164</v>
+        <v>85.74413663981163</v>
       </c>
       <c r="I12" t="n">
-        <v>5.082432391473262</v>
+        <v>5.082432391473233</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>114.5856140406914</v>
       </c>
       <c r="F13" t="n">
-        <v>113.5726994170535</v>
+        <v>113.5726994170534</v>
       </c>
       <c r="G13" t="n">
         <v>133.8430175352573</v>
       </c>
       <c r="H13" t="n">
-        <v>109.9331718420837</v>
+        <v>109.9331718420843</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44648520404796</v>
+        <v>54.44648520404793</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04607029054002</v>
+        <v>42.04607029054</v>
       </c>
       <c r="S13" t="n">
         <v>152.0922627255544</v>
@@ -1622,7 +1622,7 @@
         <v>378.327795715772</v>
       </c>
       <c r="H14" t="n">
-        <v>255.123730967108</v>
+        <v>244.1202238821236</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.34947858382114</v>
+        <v>60.34947858382111</v>
       </c>
       <c r="T14" t="n">
-        <v>157.8023321687861</v>
+        <v>168.8058392537716</v>
       </c>
       <c r="U14" t="n">
         <v>219.0871768464799</v>
@@ -1774,7 +1774,7 @@
         <v>114.5856140406914</v>
       </c>
       <c r="F16" t="n">
-        <v>113.5726994170535</v>
+        <v>113.5726994170534</v>
       </c>
       <c r="G16" t="n">
         <v>133.8430175352573</v>
@@ -1783,7 +1783,7 @@
         <v>109.9331718420844</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44648520404793</v>
+        <v>54.44648520404792</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04607029053999</v>
+        <v>42.04607029053997</v>
       </c>
       <c r="S16" t="n">
         <v>152.0922627255544</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.8819859726165</v>
+        <v>350.8854930576027</v>
       </c>
       <c r="C17" t="n">
-        <v>333.4245431651298</v>
+        <v>322.4210360801474</v>
       </c>
       <c r="D17" t="n">
-        <v>322.8346930148052</v>
+        <v>322.8346930148051</v>
       </c>
       <c r="E17" t="n">
-        <v>350.082021466384</v>
+        <v>350.0820214663839</v>
       </c>
       <c r="F17" t="n">
-        <v>375.0276971358336</v>
+        <v>375.0276971358335</v>
       </c>
       <c r="G17" t="n">
-        <v>378.327795715772</v>
+        <v>378.3277957157719</v>
       </c>
       <c r="H17" t="n">
-        <v>255.123730967108</v>
+        <v>255.1237309671079</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.34947858382115</v>
+        <v>60.34947858382101</v>
       </c>
       <c r="T17" t="n">
-        <v>168.8058392537717</v>
+        <v>168.8058392537715</v>
       </c>
       <c r="U17" t="n">
-        <v>219.0871768464799</v>
+        <v>219.0871768464797</v>
       </c>
       <c r="V17" t="n">
-        <v>295.9039098642571</v>
+        <v>295.903909864257</v>
       </c>
       <c r="W17" t="n">
-        <v>317.3926201115352</v>
+        <v>317.3926201115351</v>
       </c>
       <c r="X17" t="n">
-        <v>337.8827520725912</v>
+        <v>337.8827520725911</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.3895900501758</v>
+        <v>354.3895900501757</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.9836315760595</v>
+        <v>147.9836315760594</v>
       </c>
       <c r="C19" t="n">
-        <v>135.39847249275</v>
+        <v>135.3984724927499</v>
       </c>
       <c r="D19" t="n">
-        <v>116.7671244123346</v>
+        <v>116.7671244123344</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5856140406914</v>
+        <v>114.5856140406912</v>
       </c>
       <c r="F19" t="n">
-        <v>113.5726994170535</v>
+        <v>113.5726994170533</v>
       </c>
       <c r="G19" t="n">
-        <v>133.8430175352573</v>
+        <v>133.8430175352572</v>
       </c>
       <c r="H19" t="n">
-        <v>109.9331718420844</v>
+        <v>109.9331718420842</v>
       </c>
       <c r="I19" t="n">
-        <v>54.44648520404795</v>
+        <v>54.4464852040478</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04607029054</v>
+        <v>42.04607029053986</v>
       </c>
       <c r="S19" t="n">
-        <v>152.0922627255544</v>
+        <v>152.0922627255543</v>
       </c>
       <c r="T19" t="n">
-        <v>186.2716207120209</v>
+        <v>186.2716207120208</v>
       </c>
       <c r="U19" t="n">
-        <v>254.3452473023954</v>
+        <v>254.3452473023953</v>
       </c>
       <c r="V19" t="n">
-        <v>220.2892947179502</v>
+        <v>220.2892947179501</v>
       </c>
       <c r="W19" t="n">
-        <v>254.6746497307132</v>
+        <v>254.6746497307131</v>
       </c>
       <c r="X19" t="n">
-        <v>193.8613067831594</v>
+        <v>193.8613067831592</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.736304746217</v>
+        <v>186.7363047462169</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>375.0276971358336</v>
       </c>
       <c r="G20" t="n">
-        <v>378.327795715772</v>
+        <v>367.3242886307876</v>
       </c>
       <c r="H20" t="n">
         <v>255.123730967108</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.34597149883574</v>
+        <v>60.34947858382114</v>
       </c>
       <c r="T20" t="n">
         <v>168.8058392537716</v>
       </c>
       <c r="U20" t="n">
-        <v>219.0871768464798</v>
+        <v>219.0871768464799</v>
       </c>
       <c r="V20" t="n">
         <v>295.9039098642571</v>
@@ -2248,7 +2248,7 @@
         <v>114.5856140406914</v>
       </c>
       <c r="F22" t="n">
-        <v>113.5726994170534</v>
+        <v>113.5726994170535</v>
       </c>
       <c r="G22" t="n">
         <v>133.8430175352573</v>
@@ -2257,7 +2257,7 @@
         <v>109.9331718420844</v>
       </c>
       <c r="I22" t="n">
-        <v>54.44648520404792</v>
+        <v>54.44648520404793</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04607029053997</v>
+        <v>42.04607029053999</v>
       </c>
       <c r="S22" t="n">
         <v>152.0922627255544</v>
@@ -2302,7 +2302,7 @@
         <v>254.6746497307132</v>
       </c>
       <c r="X22" t="n">
-        <v>193.8613067831593</v>
+        <v>193.8613067831594</v>
       </c>
       <c r="Y22" t="n">
         <v>186.736304746217</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>339.8819859726179</v>
+        <v>350.8854930576028</v>
       </c>
       <c r="C23" t="n">
-        <v>333.4245431651299</v>
+        <v>333.4245431651298</v>
       </c>
       <c r="D23" t="n">
-        <v>322.8346930148053</v>
+        <v>322.8346930148052</v>
       </c>
       <c r="E23" t="n">
-        <v>350.0820214663841</v>
+        <v>339.0785143813997</v>
       </c>
       <c r="F23" t="n">
-        <v>375.0276971358338</v>
+        <v>375.0276971358336</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3277957157721</v>
+        <v>378.327795715772</v>
       </c>
       <c r="H23" t="n">
-        <v>255.1237309671081</v>
+        <v>255.123730967108</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.34947858382125</v>
+        <v>60.34947858382115</v>
       </c>
       <c r="T23" t="n">
-        <v>168.8058392537718</v>
+        <v>168.8058392537717</v>
       </c>
       <c r="U23" t="n">
-        <v>219.08717684648</v>
+        <v>219.0871768464799</v>
       </c>
       <c r="V23" t="n">
-        <v>295.9039098642572</v>
+        <v>295.9039098642571</v>
       </c>
       <c r="W23" t="n">
-        <v>317.3926201115353</v>
+        <v>317.3926201115352</v>
       </c>
       <c r="X23" t="n">
-        <v>337.8827520725914</v>
+        <v>337.8827520725912</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.3895900501759</v>
+        <v>354.3895900501758</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.74413663981163</v>
       </c>
       <c r="I24" t="n">
-        <v>5.082432391473219</v>
+        <v>5.082432391473233</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.9836315760596</v>
+        <v>147.9836315760595</v>
       </c>
       <c r="C25" t="n">
-        <v>135.3984724927502</v>
+        <v>135.39847249275</v>
       </c>
       <c r="D25" t="n">
-        <v>116.7671244123347</v>
+        <v>116.7671244123346</v>
       </c>
       <c r="E25" t="n">
-        <v>114.5856140406915</v>
+        <v>114.5856140406914</v>
       </c>
       <c r="F25" t="n">
-        <v>113.5726994170536</v>
+        <v>113.5726994170535</v>
       </c>
       <c r="G25" t="n">
-        <v>133.8430175352574</v>
+        <v>133.8430175352573</v>
       </c>
       <c r="H25" t="n">
-        <v>109.9331718420845</v>
+        <v>109.9331718420844</v>
       </c>
       <c r="I25" t="n">
-        <v>54.44648520404805</v>
+        <v>54.44648520404795</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.0460702905401</v>
+        <v>42.04607029054</v>
       </c>
       <c r="S25" t="n">
-        <v>152.0922627255545</v>
+        <v>152.0922627255544</v>
       </c>
       <c r="T25" t="n">
-        <v>186.271620712021</v>
+        <v>186.2716207120209</v>
       </c>
       <c r="U25" t="n">
-        <v>254.3452473023956</v>
+        <v>254.3452473023954</v>
       </c>
       <c r="V25" t="n">
-        <v>220.2892947179503</v>
+        <v>220.2892947179502</v>
       </c>
       <c r="W25" t="n">
-        <v>254.6746497307133</v>
+        <v>254.6746497307132</v>
       </c>
       <c r="X25" t="n">
-        <v>193.8613067831595</v>
+        <v>193.8613067831594</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.7363047462171</v>
+        <v>186.736304746217</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>333.4245431651298</v>
       </c>
       <c r="D26" t="n">
-        <v>322.8346930148052</v>
+        <v>311.8311859298199</v>
       </c>
       <c r="E26" t="n">
         <v>350.082021466384</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>49.34597149883574</v>
+        <v>60.34947858382117</v>
       </c>
       <c r="T26" t="n">
-        <v>168.8058392537716</v>
+        <v>168.8058392537717</v>
       </c>
       <c r="U26" t="n">
         <v>219.0871768464799</v>
@@ -2713,7 +2713,7 @@
         <v>147.9836315760595</v>
       </c>
       <c r="C28" t="n">
-        <v>135.39847249275</v>
+        <v>135.3984724927501</v>
       </c>
       <c r="D28" t="n">
         <v>116.7671244123346</v>
@@ -2725,13 +2725,13 @@
         <v>113.5726994170535</v>
       </c>
       <c r="G28" t="n">
-        <v>133.8430175352573</v>
+        <v>133.8430175352574</v>
       </c>
       <c r="H28" t="n">
         <v>109.9331718420844</v>
       </c>
       <c r="I28" t="n">
-        <v>54.44648520404793</v>
+        <v>54.44648520404765</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04607029053999</v>
+        <v>42.04607029054002</v>
       </c>
       <c r="S28" t="n">
-        <v>152.0922627255544</v>
+        <v>152.0922627255545</v>
       </c>
       <c r="T28" t="n">
         <v>186.2716207120209</v>
       </c>
       <c r="U28" t="n">
-        <v>254.3452473023954</v>
+        <v>254.3452473023955</v>
       </c>
       <c r="V28" t="n">
         <v>220.2892947179502</v>
@@ -2801,13 +2801,13 @@
         <v>350.082021466384</v>
       </c>
       <c r="F29" t="n">
-        <v>375.0276971358337</v>
+        <v>364.0241900508502</v>
       </c>
       <c r="G29" t="n">
         <v>378.327795715772</v>
       </c>
       <c r="H29" t="n">
-        <v>255.1237309671081</v>
+        <v>255.123730967108</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>219.0871768464799</v>
       </c>
       <c r="V29" t="n">
-        <v>295.9039098642572</v>
+        <v>295.9039098642571</v>
       </c>
       <c r="W29" t="n">
-        <v>317.3926201115353</v>
+        <v>317.3926201115352</v>
       </c>
       <c r="X29" t="n">
-        <v>326.8792449876053</v>
+        <v>337.8827520725912</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.3895900501759</v>
+        <v>354.3895900501758</v>
       </c>
     </row>
     <row r="30">
@@ -2968,7 +2968,7 @@
         <v>109.9331718420844</v>
       </c>
       <c r="I31" t="n">
-        <v>54.44648520404797</v>
+        <v>54.44648520404795</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04607029054003</v>
+        <v>42.04607029054001</v>
       </c>
       <c r="S31" t="n">
         <v>152.0922627255545</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.0995282658182</v>
+        <v>350.0995282658181</v>
       </c>
       <c r="C35" t="n">
-        <v>332.6385783733452</v>
+        <v>332.6385783733451</v>
       </c>
       <c r="D35" t="n">
-        <v>322.0487282230206</v>
+        <v>322.0487282230205</v>
       </c>
       <c r="E35" t="n">
-        <v>349.2960566745994</v>
+        <v>349.2960566745993</v>
       </c>
       <c r="F35" t="n">
-        <v>374.2417323440491</v>
+        <v>374.241732344049</v>
       </c>
       <c r="G35" t="n">
-        <v>377.5418309239874</v>
+        <v>377.5418309239873</v>
       </c>
       <c r="H35" t="n">
-        <v>254.3377661753234</v>
+        <v>254.3377661753233</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>59.56351379203659</v>
+        <v>59.56351379203645</v>
       </c>
       <c r="T35" t="n">
-        <v>168.0198744619871</v>
+        <v>168.0198744619869</v>
       </c>
       <c r="U35" t="n">
-        <v>218.3012120546953</v>
+        <v>218.3012120546952</v>
       </c>
       <c r="V35" t="n">
-        <v>295.1179450724732</v>
+        <v>295.1179450724724</v>
       </c>
       <c r="W35" t="n">
-        <v>316.6066553197506</v>
+        <v>316.6066553197505</v>
       </c>
       <c r="X35" t="n">
-        <v>337.0967872808067</v>
+        <v>337.0967872808066</v>
       </c>
       <c r="Y35" t="n">
-        <v>353.6036252583913</v>
+        <v>353.6036252583911</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.197666784275</v>
+        <v>147.1976667842748</v>
       </c>
       <c r="C37" t="n">
-        <v>134.6125077009655</v>
+        <v>134.6125077009654</v>
       </c>
       <c r="D37" t="n">
-        <v>115.98115962055</v>
+        <v>115.9811596205499</v>
       </c>
       <c r="E37" t="n">
-        <v>113.7996492489068</v>
+        <v>113.7996492489067</v>
       </c>
       <c r="F37" t="n">
-        <v>112.7867346252689</v>
+        <v>112.7867346252688</v>
       </c>
       <c r="G37" t="n">
-        <v>133.0570527434728</v>
+        <v>133.0570527434726</v>
       </c>
       <c r="H37" t="n">
-        <v>109.1472070502998</v>
+        <v>109.1472070502997</v>
       </c>
       <c r="I37" t="n">
-        <v>53.66052041226338</v>
+        <v>53.66052041226324</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.26010549875544</v>
+        <v>41.26010549875529</v>
       </c>
       <c r="S37" t="n">
-        <v>151.3062979337699</v>
+        <v>151.3062979337697</v>
       </c>
       <c r="T37" t="n">
-        <v>185.4856559202364</v>
+        <v>185.4856559202362</v>
       </c>
       <c r="U37" t="n">
-        <v>253.5592825106109</v>
+        <v>253.5592825106108</v>
       </c>
       <c r="V37" t="n">
-        <v>219.5033299261657</v>
+        <v>219.5033299261655</v>
       </c>
       <c r="W37" t="n">
-        <v>253.8886849389287</v>
+        <v>253.8886849389285</v>
       </c>
       <c r="X37" t="n">
-        <v>193.0753419913748</v>
+        <v>193.0753419913747</v>
       </c>
       <c r="Y37" t="n">
-        <v>185.9503399544325</v>
+        <v>185.9503399544323</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>377.5418309239873</v>
       </c>
       <c r="H38" t="n">
-        <v>254.3377661753233</v>
+        <v>254.337766175326</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>59.56351379203646</v>
+        <v>59.56351379203645</v>
       </c>
       <c r="T38" t="n">
         <v>168.0198744619869</v>
@@ -3673,13 +3673,13 @@
         <v>112.7867346252688</v>
       </c>
       <c r="G40" t="n">
-        <v>133.0570527434727</v>
+        <v>133.0570527434726</v>
       </c>
       <c r="H40" t="n">
         <v>109.1472070502997</v>
       </c>
       <c r="I40" t="n">
-        <v>53.66052041226325</v>
+        <v>53.66052041226324</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>381.947876871696</v>
+        <v>381.9478768716959</v>
       </c>
       <c r="C41" t="n">
-        <v>364.486926979223</v>
+        <v>364.4869269792229</v>
       </c>
       <c r="D41" t="n">
-        <v>244.4282595854594</v>
+        <v>353.8970768288983</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1444052804772</v>
+        <v>381.1444052804771</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0900809499269</v>
+        <v>406.0900809499267</v>
       </c>
       <c r="G41" t="n">
-        <v>409.3901795298652</v>
+        <v>237.6524731420009</v>
       </c>
       <c r="H41" t="n">
-        <v>286.1861147812012</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>12.04694068677907</v>
+        <v>12.04694068677895</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>91.41186239791435</v>
+        <v>91.41186239791423</v>
       </c>
       <c r="T41" t="n">
-        <v>199.8682230678648</v>
+        <v>199.8682230678647</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1495606605731</v>
+        <v>250.149560660573</v>
       </c>
       <c r="V41" t="n">
-        <v>326.9662936783503</v>
+        <v>326.9662936783502</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>348.4550039256283</v>
       </c>
       <c r="X41" t="n">
-        <v>368.9451358866845</v>
+        <v>368.9451358866843</v>
       </c>
       <c r="Y41" t="n">
-        <v>385.451973864269</v>
+        <v>385.4519738642689</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.0460153901527</v>
+        <v>55.49083189864004</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4608563068433</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>147.8295082264278</v>
+        <v>147.8295082264277</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6479978547846</v>
+        <v>145.6479978547845</v>
       </c>
       <c r="F43" t="n">
-        <v>144.6350832311467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9955556561776</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.50886901814103</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.1084541046332</v>
+        <v>73.10845410463308</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1546465396476</v>
+        <v>183.1546465396475</v>
       </c>
       <c r="T43" t="n">
-        <v>217.3340045261141</v>
+        <v>217.334004526114</v>
       </c>
       <c r="U43" t="n">
-        <v>264.4201885413013</v>
+        <v>285.4076311164885</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>251.3516785320433</v>
       </c>
       <c r="W43" t="n">
-        <v>285.7370335448064</v>
+        <v>285.7370335448063</v>
       </c>
       <c r="X43" t="n">
-        <v>224.9236905972526</v>
+        <v>224.9236905972525</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>217.7986885603101</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>381.9478768716959</v>
       </c>
       <c r="C44" t="n">
-        <v>272.5071233258319</v>
+        <v>364.4869269792229</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>353.8970768288983</v>
       </c>
       <c r="E44" t="n">
         <v>381.1444052804771</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0900809499268</v>
+        <v>369.6033799975045</v>
       </c>
       <c r="G44" t="n">
-        <v>409.3901795298651</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.1861147812011</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>91.41186239791432</v>
+        <v>91.41186239791425</v>
       </c>
       <c r="T44" t="n">
         <v>199.8682230678648</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1495606605731</v>
+        <v>250.149560660573</v>
       </c>
       <c r="V44" t="n">
-        <v>326.9662936783503</v>
+        <v>326.9662936783502</v>
       </c>
       <c r="W44" t="n">
-        <v>348.4550039256284</v>
+        <v>348.4550039256283</v>
       </c>
       <c r="X44" t="n">
-        <v>368.9451358866844</v>
+        <v>368.9451358866843</v>
       </c>
       <c r="Y44" t="n">
-        <v>385.451973864269</v>
+        <v>385.4519738642689</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>85.74413663981163</v>
       </c>
       <c r="I45" t="n">
-        <v>5.082432391473219</v>
+        <v>5.082432391473233</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.0460153901527</v>
+        <v>179.0460153901526</v>
       </c>
       <c r="C46" t="n">
-        <v>57.9638270201647</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>147.8295082264277</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.9054013493505</v>
+        <v>28.92676693352164</v>
       </c>
       <c r="H46" t="n">
         <v>140.9955556561775</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.50886901814104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>73.1084541046331</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1546465396475</v>
       </c>
       <c r="T46" t="n">
-        <v>217.3340045261141</v>
+        <v>217.334004526114</v>
       </c>
       <c r="U46" t="n">
-        <v>285.4076311164886</v>
+        <v>285.4076311164885</v>
       </c>
       <c r="V46" t="n">
-        <v>251.3516785320434</v>
+        <v>251.3516785320433</v>
       </c>
       <c r="W46" t="n">
-        <v>285.7370335448064</v>
+        <v>285.7370335448063</v>
       </c>
       <c r="X46" t="n">
         <v>224.9236905972525</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.7986885603102</v>
+        <v>217.7986885603101</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F2" t="n">
-        <v>9.032405809070742</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G2" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H2" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I2" t="n">
         <v>0.36498292861143</v>
@@ -4331,19 +4331,19 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="N2" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="L2" t="n">
-        <v>4.881646670177876</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.881646670177876</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>9.398310411744323</v>
-      </c>
-      <c r="O2" t="n">
-        <v>13.73248268900505</v>
       </c>
       <c r="P2" t="n">
         <v>13.73248268900505</v>
@@ -4352,28 +4352,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R2" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="T2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U2" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="V2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C3" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D3" t="n">
-        <v>9.581723550112187</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H3" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I3" t="n">
         <v>0.36498292861143</v>
@@ -4434,16 +4434,16 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S3" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T3" t="n">
-        <v>14.19009386086257</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W3" t="n">
         <v>9.581723550112187</v>
@@ -4452,7 +4452,7 @@
         <v>9.581723550112187</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E4" t="n">
-        <v>9.581723550112187</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F4" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G4" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H4" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I4" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J4" t="n">
         <v>0.36498292861143</v>
@@ -4492,22 +4492,22 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L4" t="n">
-        <v>0.36498292861143</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M4" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N4" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O4" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P4" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R4" t="n">
         <v>13.64077611982112</v>
@@ -4516,22 +4516,22 @@
         <v>13.64077611982112</v>
       </c>
       <c r="T4" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U4" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V4" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W4" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="5">
@@ -4568,7 +4568,7 @@
         <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
-        <v>11.73106307749937</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
         <v>11.73106307749937</v>
@@ -4580,7 +4580,7 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
@@ -4589,13 +4589,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
         <v>20.55868221764227</v>
@@ -4604,7 +4604,7 @@
         <v>20.55868221764227</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
         <v>14.44108515774386</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
@@ -4653,13 +4653,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>12.57800130961213</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>19.38528659390645</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>26.19257187820077</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C7" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F7" t="n">
         <v>0.5500836593369149</v>
@@ -4726,16 +4726,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M7" t="n">
-        <v>7.357368943631237</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N7" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O7" t="n">
         <v>20.69689768255142</v>
@@ -4744,31 +4744,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="U7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X7" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>11.73106307749937</v>
+        <v>4.923777793205052</v>
       </c>
       <c r="L8" t="n">
         <v>11.73106307749937</v>
@@ -4817,37 +4817,37 @@
         <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
         <v>0.5500836593369149</v>
@@ -4890,13 +4890,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>12.57800130961213</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>19.38528659390645</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
-        <v>26.19257187820077</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
         <v>0.5500836593369149</v>
@@ -4963,13 +4963,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L10" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N10" t="n">
         <v>13.8896123982571</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U10" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5033,10 @@
         <v>342.3949010844893</v>
       </c>
       <c r="H11" t="n">
-        <v>84.69416273387512</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="I11" t="n">
-        <v>84.69416273387512</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="J11" t="n">
         <v>336.2207744174739</v>
@@ -5045,43 +5045,43 @@
         <v>763.9324820293909</v>
       </c>
       <c r="L11" t="n">
-        <v>1331.448438036226</v>
+        <v>1331.448438036227</v>
       </c>
       <c r="M11" t="n">
-        <v>1994.588725155947</v>
+        <v>1994.588725155948</v>
       </c>
       <c r="N11" t="n">
-        <v>2673.073123791923</v>
+        <v>2673.073123791924</v>
       </c>
       <c r="O11" t="n">
-        <v>3300.411440624011</v>
+        <v>3300.411440624012</v>
       </c>
       <c r="P11" t="n">
-        <v>3801.329179196326</v>
+        <v>3801.329179196327</v>
       </c>
       <c r="Q11" t="n">
-        <v>4129.324793036378</v>
+        <v>4129.324793036379</v>
       </c>
       <c r="R11" t="n">
-        <v>4234.708136693755</v>
+        <v>4234.708136693756</v>
       </c>
       <c r="S11" t="n">
-        <v>4184.863721038367</v>
+        <v>4173.749067417169</v>
       </c>
       <c r="T11" t="n">
-        <v>4014.352772297183</v>
+        <v>4003.238118675986</v>
       </c>
       <c r="U11" t="n">
-        <v>3793.052593664375</v>
+        <v>3781.937940043178</v>
       </c>
       <c r="V11" t="n">
-        <v>3494.159755417651</v>
+        <v>3483.045101796453</v>
       </c>
       <c r="W11" t="n">
-        <v>3173.561149244383</v>
+        <v>3162.446495623185</v>
       </c>
       <c r="X11" t="n">
-        <v>2832.265440080149</v>
+        <v>2821.150786458952</v>
       </c>
       <c r="Y11" t="n">
         <v>2474.296157201184</v>
@@ -5112,34 +5112,34 @@
         <v>176.4381718563851</v>
       </c>
       <c r="H12" t="n">
-        <v>89.82793282627235</v>
+        <v>89.82793282627233</v>
       </c>
       <c r="I12" t="n">
-        <v>84.69416273387512</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="J12" t="n">
         <v>215.6838425658397</v>
       </c>
       <c r="K12" t="n">
-        <v>517.720893852829</v>
+        <v>517.7208938528292</v>
       </c>
       <c r="L12" t="n">
-        <v>970.1695241505645</v>
+        <v>970.1695241505647</v>
       </c>
       <c r="M12" t="n">
-        <v>1517.512603257084</v>
+        <v>1361.20202724781</v>
       </c>
       <c r="N12" t="n">
-        <v>2093.750869913138</v>
+        <v>1937.440293903864</v>
       </c>
       <c r="O12" t="n">
-        <v>2169.873515540036</v>
+        <v>1937.440293903864</v>
       </c>
       <c r="P12" t="n">
-        <v>2555.787791638096</v>
+        <v>2323.354570001924</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.787791638096</v>
+        <v>2531.408847140402</v>
       </c>
       <c r="R12" t="n">
         <v>2555.787791638096</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>871.1048545967221</v>
+        <v>871.1048545967226</v>
       </c>
       <c r="C13" t="n">
-        <v>734.3387207656615</v>
+        <v>734.3387207656619</v>
       </c>
       <c r="D13" t="n">
-        <v>616.392130450172</v>
+        <v>616.3921304501725</v>
       </c>
       <c r="E13" t="n">
-        <v>500.6490859646251</v>
+        <v>500.6490859646257</v>
       </c>
       <c r="F13" t="n">
-        <v>385.929187563561</v>
+        <v>385.9291875635616</v>
       </c>
       <c r="G13" t="n">
-        <v>250.7342203562304</v>
+        <v>250.734220356231</v>
       </c>
       <c r="H13" t="n">
         <v>139.6906124349337</v>
       </c>
       <c r="I13" t="n">
-        <v>84.69416273387512</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="J13" t="n">
-        <v>184.7552674583211</v>
+        <v>184.7552674583212</v>
       </c>
       <c r="K13" t="n">
-        <v>458.7398479270803</v>
+        <v>458.7398479270804</v>
       </c>
       <c r="L13" t="n">
-        <v>856.0547090596085</v>
+        <v>856.0547090596087</v>
       </c>
       <c r="M13" t="n">
         <v>1283.642688728452</v>
@@ -5218,13 +5218,13 @@
         <v>2389.088653551361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2525.953731954914</v>
+        <v>2525.953731954915</v>
       </c>
       <c r="R13" t="n">
-        <v>2483.482953883662</v>
+        <v>2483.482953883663</v>
       </c>
       <c r="S13" t="n">
-        <v>2329.854405676031</v>
+        <v>2329.854405676032</v>
       </c>
       <c r="T13" t="n">
         <v>2141.701253441667</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2119.866366233908</v>
+        <v>2108.751712612712</v>
       </c>
       <c r="C14" t="n">
-        <v>1783.073898390343</v>
+        <v>1771.959244769146</v>
       </c>
       <c r="D14" t="n">
-        <v>1456.978248880439</v>
+        <v>1445.863595259242</v>
       </c>
       <c r="E14" t="n">
-        <v>1103.36004537904</v>
+        <v>1092.245391757844</v>
       </c>
       <c r="F14" t="n">
-        <v>724.5441896862792</v>
+        <v>713.4295360650829</v>
       </c>
       <c r="G14" t="n">
-        <v>342.3949010844893</v>
+        <v>331.2802474632929</v>
       </c>
       <c r="H14" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="I14" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J14" t="n">
         <v>336.2207744174735</v>
@@ -5282,13 +5282,13 @@
         <v>763.9324820293912</v>
       </c>
       <c r="L14" t="n">
-        <v>1331.448438036226</v>
+        <v>1331.448438036227</v>
       </c>
       <c r="M14" t="n">
         <v>1994.588725155947</v>
       </c>
       <c r="N14" t="n">
-        <v>2673.073123791923</v>
+        <v>2673.073123791924</v>
       </c>
       <c r="O14" t="n">
         <v>3300.411440624012</v>
@@ -5297,31 +5297,31 @@
         <v>3801.329179196327</v>
       </c>
       <c r="Q14" t="n">
-        <v>4129.324793036379</v>
+        <v>4129.32479303638</v>
       </c>
       <c r="R14" t="n">
-        <v>4234.708136693756</v>
+        <v>4234.708136693757</v>
       </c>
       <c r="S14" t="n">
-        <v>4173.749067417169</v>
+        <v>4173.74906741717</v>
       </c>
       <c r="T14" t="n">
-        <v>4014.352772297183</v>
+        <v>4003.238118675987</v>
       </c>
       <c r="U14" t="n">
-        <v>3793.052593664375</v>
+        <v>3781.937940043179</v>
       </c>
       <c r="V14" t="n">
-        <v>3494.159755417651</v>
+        <v>3483.045101796454</v>
       </c>
       <c r="W14" t="n">
-        <v>3173.561149244383</v>
+        <v>3162.446495623186</v>
       </c>
       <c r="X14" t="n">
-        <v>2832.265440080149</v>
+        <v>2821.150786458953</v>
       </c>
       <c r="Y14" t="n">
-        <v>2474.296157201184</v>
+        <v>2463.181503579987</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>458.932879308553</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3983213354379</v>
+        <v>312.398321335438</v>
       </c>
       <c r="G15" t="n">
         <v>176.4381718563851</v>
       </c>
       <c r="H15" t="n">
-        <v>89.82793282627232</v>
+        <v>89.82793282627233</v>
       </c>
       <c r="I15" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J15" t="n">
-        <v>84.69416273387513</v>
+        <v>215.6838425658398</v>
       </c>
       <c r="K15" t="n">
-        <v>308.933306632939</v>
+        <v>215.6838425658398</v>
       </c>
       <c r="L15" t="n">
-        <v>308.933306632939</v>
+        <v>541.366528269112</v>
       </c>
       <c r="M15" t="n">
-        <v>856.2763857394585</v>
+        <v>1088.709607375632</v>
       </c>
       <c r="N15" t="n">
-        <v>1432.514652395512</v>
+        <v>1664.947874031686</v>
       </c>
       <c r="O15" t="n">
-        <v>1937.440293903863</v>
+        <v>2169.873515540036</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.354570001923</v>
+        <v>2555.787791638096</v>
       </c>
       <c r="Q15" t="n">
-        <v>2531.408847140402</v>
+        <v>2555.787791638096</v>
       </c>
       <c r="R15" t="n">
         <v>2555.787791638096</v>
@@ -5410,61 +5410,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>871.1048545967225</v>
+        <v>871.1048545967228</v>
       </c>
       <c r="C16" t="n">
-        <v>734.3387207656618</v>
+        <v>734.3387207656622</v>
       </c>
       <c r="D16" t="n">
-        <v>616.3921304501723</v>
+        <v>616.3921304501727</v>
       </c>
       <c r="E16" t="n">
-        <v>500.6490859646255</v>
+        <v>500.6490859646258</v>
       </c>
       <c r="F16" t="n">
-        <v>385.9291875635614</v>
+        <v>385.9291875635618</v>
       </c>
       <c r="G16" t="n">
-        <v>250.7342203562307</v>
+        <v>250.7342203562308</v>
       </c>
       <c r="H16" t="n">
-        <v>139.6906124349337</v>
+        <v>139.6906124349334</v>
       </c>
       <c r="I16" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J16" t="n">
-        <v>184.7552674583208</v>
+        <v>184.7552674583212</v>
       </c>
       <c r="K16" t="n">
-        <v>458.7398479270797</v>
+        <v>458.7398479270805</v>
       </c>
       <c r="L16" t="n">
-        <v>856.0547090596081</v>
+        <v>856.054709059609</v>
       </c>
       <c r="M16" t="n">
-        <v>1283.642688728452</v>
+        <v>1283.642688728453</v>
       </c>
       <c r="N16" t="n">
-        <v>1707.247908088586</v>
+        <v>1707.247908088587</v>
       </c>
       <c r="O16" t="n">
-        <v>2084.906526569835</v>
+        <v>2084.906526569836</v>
       </c>
       <c r="P16" t="n">
-        <v>2389.088653551361</v>
+        <v>2389.088653551362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2525.953731954914</v>
+        <v>2525.953731954915</v>
       </c>
       <c r="R16" t="n">
-        <v>2483.482953883662</v>
+        <v>2483.482953883663</v>
       </c>
       <c r="S16" t="n">
-        <v>2329.854405676031</v>
+        <v>2329.854405676032</v>
       </c>
       <c r="T16" t="n">
-        <v>2141.701253441667</v>
+        <v>2141.701253441668</v>
       </c>
       <c r="U16" t="n">
         <v>1884.786862227126</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2119.866366233908</v>
+        <v>2108.751712612713</v>
       </c>
       <c r="C17" t="n">
-        <v>1783.073898390343</v>
+        <v>1783.073898390342</v>
       </c>
       <c r="D17" t="n">
-        <v>1456.978248880439</v>
+        <v>1456.978248880438</v>
       </c>
       <c r="E17" t="n">
         <v>1103.36004537904</v>
       </c>
       <c r="F17" t="n">
-        <v>724.5441896862792</v>
+        <v>724.544189686279</v>
       </c>
       <c r="G17" t="n">
-        <v>342.3949010844893</v>
+        <v>342.3949010844892</v>
       </c>
       <c r="H17" t="n">
-        <v>84.69416273387512</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="I17" t="n">
-        <v>84.69416273387512</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J17" t="n">
-        <v>336.220774417473</v>
+        <v>336.2207744174748</v>
       </c>
       <c r="K17" t="n">
-        <v>763.93248202939</v>
+        <v>763.9324820293918</v>
       </c>
       <c r="L17" t="n">
-        <v>1331.448438036226</v>
+        <v>1331.448438036228</v>
       </c>
       <c r="M17" t="n">
-        <v>1994.588725155947</v>
+        <v>1994.588725155949</v>
       </c>
       <c r="N17" t="n">
-        <v>2673.073123791923</v>
+        <v>2673.073123791924</v>
       </c>
       <c r="O17" t="n">
-        <v>3300.411440624011</v>
+        <v>3300.411440624013</v>
       </c>
       <c r="P17" t="n">
-        <v>3801.329179196326</v>
+        <v>3801.329179196328</v>
       </c>
       <c r="Q17" t="n">
-        <v>4129.324793036378</v>
+        <v>4129.32479303638</v>
       </c>
       <c r="R17" t="n">
-        <v>4234.708136693755</v>
+        <v>4234.708136693757</v>
       </c>
       <c r="S17" t="n">
-        <v>4173.749067417169</v>
+        <v>4173.74906741717</v>
       </c>
       <c r="T17" t="n">
-        <v>4003.238118675985</v>
+        <v>4003.238118675987</v>
       </c>
       <c r="U17" t="n">
-        <v>3781.937940043177</v>
+        <v>3781.937940043179</v>
       </c>
       <c r="V17" t="n">
-        <v>3483.045101796452</v>
+        <v>3483.045101796455</v>
       </c>
       <c r="W17" t="n">
-        <v>3162.446495623185</v>
+        <v>3162.446495623187</v>
       </c>
       <c r="X17" t="n">
-        <v>2821.150786458951</v>
+        <v>2821.150786458954</v>
       </c>
       <c r="Y17" t="n">
-        <v>2463.181503579985</v>
+        <v>2463.181503579989</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>458.932879308553</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3983213354379</v>
+        <v>312.398321335438</v>
       </c>
       <c r="G18" t="n">
         <v>176.4381718563851</v>
       </c>
       <c r="H18" t="n">
-        <v>89.82793282627232</v>
+        <v>89.82793282627235</v>
       </c>
       <c r="I18" t="n">
-        <v>84.69416273387512</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J18" t="n">
-        <v>84.69416273387512</v>
+        <v>215.6838425658397</v>
       </c>
       <c r="K18" t="n">
-        <v>386.7312140208646</v>
+        <v>403.8277554417236</v>
       </c>
       <c r="L18" t="n">
-        <v>839.1798443186001</v>
+        <v>856.2763857394591</v>
       </c>
       <c r="M18" t="n">
-        <v>1386.52292342512</v>
+        <v>856.2763857394591</v>
       </c>
       <c r="N18" t="n">
-        <v>1962.761190081173</v>
+        <v>1432.514652395513</v>
       </c>
       <c r="O18" t="n">
-        <v>2169.873515540036</v>
+        <v>1937.440293903864</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.787791638096</v>
+        <v>2323.354570001924</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.787791638096</v>
+        <v>2531.408847140402</v>
       </c>
       <c r="R18" t="n">
         <v>2555.787791638096</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.1048545967226</v>
+        <v>871.1048545967218</v>
       </c>
       <c r="C19" t="n">
-        <v>734.3387207656619</v>
+        <v>734.3387207656613</v>
       </c>
       <c r="D19" t="n">
-        <v>616.3921304501724</v>
+        <v>616.392130450172</v>
       </c>
       <c r="E19" t="n">
-        <v>500.6490859646256</v>
+        <v>500.6490859646253</v>
       </c>
       <c r="F19" t="n">
-        <v>385.9291875635615</v>
+        <v>385.9291875635613</v>
       </c>
       <c r="G19" t="n">
         <v>250.7342203562308</v>
       </c>
       <c r="H19" t="n">
-        <v>139.6906124349334</v>
+        <v>139.6906124349335</v>
       </c>
       <c r="I19" t="n">
-        <v>84.69416273387512</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J19" t="n">
-        <v>184.7552674583211</v>
+        <v>184.7552674583213</v>
       </c>
       <c r="K19" t="n">
-        <v>458.7398479270803</v>
+        <v>458.7398479270773</v>
       </c>
       <c r="L19" t="n">
-        <v>856.0547090596086</v>
+        <v>856.0547090596058</v>
       </c>
       <c r="M19" t="n">
-        <v>1283.642688728452</v>
+        <v>1283.64268872845</v>
       </c>
       <c r="N19" t="n">
-        <v>1707.247908088586</v>
+        <v>1707.247908088584</v>
       </c>
       <c r="O19" t="n">
-        <v>2084.906526569835</v>
+        <v>2084.906526569833</v>
       </c>
       <c r="P19" t="n">
-        <v>2389.088653551361</v>
+        <v>2389.088653551359</v>
       </c>
       <c r="Q19" t="n">
-        <v>2525.953731954915</v>
+        <v>2525.953731954913</v>
       </c>
       <c r="R19" t="n">
-        <v>2483.482953883663</v>
+        <v>2483.48295388366</v>
       </c>
       <c r="S19" t="n">
-        <v>2329.854405676032</v>
+        <v>2329.85440567603</v>
       </c>
       <c r="T19" t="n">
-        <v>2141.701253441667</v>
+        <v>2141.701253441665</v>
       </c>
       <c r="U19" t="n">
-        <v>1884.786862227126</v>
+        <v>1884.786862227124</v>
       </c>
       <c r="V19" t="n">
-        <v>1662.272423118085</v>
+        <v>1662.272423118084</v>
       </c>
       <c r="W19" t="n">
-        <v>1405.025302177971</v>
+        <v>1405.02530217797</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.2058003768</v>
+        <v>1209.205800376799</v>
       </c>
       <c r="Y19" t="n">
-        <v>1020.583270330116</v>
+        <v>1020.583270330115</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2119.866366233908</v>
+        <v>2108.751712612712</v>
       </c>
       <c r="C20" t="n">
-        <v>1783.073898390343</v>
+        <v>1771.959244769146</v>
       </c>
       <c r="D20" t="n">
-        <v>1456.978248880439</v>
+        <v>1445.863595259242</v>
       </c>
       <c r="E20" t="n">
-        <v>1103.36004537904</v>
+        <v>1092.245391757844</v>
       </c>
       <c r="F20" t="n">
-        <v>724.5441896862792</v>
+        <v>713.4295360650829</v>
       </c>
       <c r="G20" t="n">
         <v>342.3949010844893</v>
       </c>
       <c r="H20" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="I20" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J20" t="n">
         <v>336.2207744174735</v>
@@ -5771,31 +5771,31 @@
         <v>3801.329179196327</v>
       </c>
       <c r="Q20" t="n">
-        <v>4129.324793036379</v>
+        <v>4129.32479303638</v>
       </c>
       <c r="R20" t="n">
-        <v>4234.708136693756</v>
+        <v>4234.708136693757</v>
       </c>
       <c r="S20" t="n">
-        <v>4184.863721038367</v>
+        <v>4173.74906741717</v>
       </c>
       <c r="T20" t="n">
-        <v>4014.352772297183</v>
+        <v>4003.238118675987</v>
       </c>
       <c r="U20" t="n">
-        <v>3793.052593664375</v>
+        <v>3781.937940043179</v>
       </c>
       <c r="V20" t="n">
-        <v>3494.159755417651</v>
+        <v>3483.045101796454</v>
       </c>
       <c r="W20" t="n">
-        <v>3173.561149244383</v>
+        <v>3162.446495623186</v>
       </c>
       <c r="X20" t="n">
-        <v>2832.265440080149</v>
+        <v>2821.150786458953</v>
       </c>
       <c r="Y20" t="n">
-        <v>2474.296157201184</v>
+        <v>2463.181503579987</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>458.932879308553</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3983213354379</v>
+        <v>312.398321335438</v>
       </c>
       <c r="G21" t="n">
         <v>176.4381718563851</v>
       </c>
       <c r="H21" t="n">
-        <v>89.82793282627232</v>
+        <v>89.82793282627233</v>
       </c>
       <c r="I21" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J21" t="n">
-        <v>84.69416273387513</v>
+        <v>215.6838425658398</v>
       </c>
       <c r="K21" t="n">
-        <v>84.69416273387513</v>
+        <v>215.6838425658398</v>
       </c>
       <c r="L21" t="n">
-        <v>537.1427930316107</v>
+        <v>668.1324728635755</v>
       </c>
       <c r="M21" t="n">
-        <v>1084.48587213813</v>
+        <v>856.2763857394585</v>
       </c>
       <c r="N21" t="n">
-        <v>1660.724138794184</v>
+        <v>1432.514652395512</v>
       </c>
       <c r="O21" t="n">
-        <v>2165.649780302535</v>
+        <v>1937.440293903863</v>
       </c>
       <c r="P21" t="n">
-        <v>2551.564056400595</v>
+        <v>2323.354570001923</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.787791638096</v>
+        <v>2531.408847140402</v>
       </c>
       <c r="R21" t="n">
         <v>2555.787791638096</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>871.104854596723</v>
+        <v>871.1048545967226</v>
       </c>
       <c r="C22" t="n">
-        <v>734.3387207656624</v>
+        <v>734.3387207656619</v>
       </c>
       <c r="D22" t="n">
-        <v>616.3921304501729</v>
+        <v>616.3921304501724</v>
       </c>
       <c r="E22" t="n">
-        <v>500.6490859646261</v>
+        <v>500.6490859646256</v>
       </c>
       <c r="F22" t="n">
-        <v>385.929187563562</v>
+        <v>385.9291875635615</v>
       </c>
       <c r="G22" t="n">
         <v>250.734220356231</v>
       </c>
       <c r="H22" t="n">
-        <v>139.6906124349336</v>
+        <v>139.6906124349337</v>
       </c>
       <c r="I22" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J22" t="n">
         <v>184.7552674583212</v>
@@ -5914,7 +5914,7 @@
         <v>458.7398479270805</v>
       </c>
       <c r="L22" t="n">
-        <v>856.0547090596089</v>
+        <v>856.054709059609</v>
       </c>
       <c r="M22" t="n">
         <v>1283.642688728453</v>
@@ -5929,7 +5929,7 @@
         <v>2389.088653551362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2525.953731954915</v>
+        <v>2525.953731954914</v>
       </c>
       <c r="R22" t="n">
         <v>2483.482953883663</v>
@@ -5938,16 +5938,16 @@
         <v>2329.854405676032</v>
       </c>
       <c r="T22" t="n">
-        <v>2141.701253441668</v>
+        <v>2141.701253441667</v>
       </c>
       <c r="U22" t="n">
-        <v>1884.786862227127</v>
+        <v>1884.786862227126</v>
       </c>
       <c r="V22" t="n">
-        <v>1662.272423118086</v>
+        <v>1662.272423118085</v>
       </c>
       <c r="W22" t="n">
-        <v>1405.025302177972</v>
+        <v>1405.025302177971</v>
       </c>
       <c r="X22" t="n">
         <v>1209.2058003768</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2119.866366233909</v>
+        <v>2108.751712612712</v>
       </c>
       <c r="C23" t="n">
-        <v>1783.073898390343</v>
+        <v>1771.959244769146</v>
       </c>
       <c r="D23" t="n">
-        <v>1456.978248880439</v>
+        <v>1445.863595259242</v>
       </c>
       <c r="E23" t="n">
-        <v>1103.360045379041</v>
+        <v>1103.36004537904</v>
       </c>
       <c r="F23" t="n">
-        <v>724.5441896862794</v>
+        <v>724.5441896862792</v>
       </c>
       <c r="G23" t="n">
-        <v>342.3949010844894</v>
+        <v>342.3949010844893</v>
       </c>
       <c r="H23" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="I23" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J23" t="n">
         <v>336.2207744174748</v>
@@ -5999,40 +5999,40 @@
         <v>1994.588725155949</v>
       </c>
       <c r="N23" t="n">
-        <v>2673.073123791925</v>
+        <v>2673.073123791924</v>
       </c>
       <c r="O23" t="n">
-        <v>3300.411440624014</v>
+        <v>3300.411440624013</v>
       </c>
       <c r="P23" t="n">
-        <v>3801.329179196329</v>
+        <v>3801.329179196328</v>
       </c>
       <c r="Q23" t="n">
         <v>4129.32479303638</v>
       </c>
       <c r="R23" t="n">
-        <v>4234.708136693758</v>
+        <v>4234.708136693757</v>
       </c>
       <c r="S23" t="n">
-        <v>4173.749067417171</v>
+        <v>4173.74906741717</v>
       </c>
       <c r="T23" t="n">
-        <v>4003.238118675988</v>
+        <v>4003.238118675987</v>
       </c>
       <c r="U23" t="n">
         <v>3781.937940043179</v>
       </c>
       <c r="V23" t="n">
-        <v>3483.045101796455</v>
+        <v>3483.045101796454</v>
       </c>
       <c r="W23" t="n">
-        <v>3162.446495623187</v>
+        <v>3162.446495623186</v>
       </c>
       <c r="X23" t="n">
         <v>2821.150786458953</v>
       </c>
       <c r="Y23" t="n">
-        <v>2463.181503579988</v>
+        <v>2463.181503579987</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>89.82793282627235</v>
       </c>
       <c r="I24" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J24" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="K24" t="n">
-        <v>84.69416273387516</v>
+        <v>386.7312140208646</v>
       </c>
       <c r="L24" t="n">
-        <v>308.933306632939</v>
+        <v>839.1798443186001</v>
       </c>
       <c r="M24" t="n">
-        <v>856.2763857394585</v>
+        <v>1266.569606335213</v>
       </c>
       <c r="N24" t="n">
-        <v>1432.514652395512</v>
+        <v>1842.807872991267</v>
       </c>
       <c r="O24" t="n">
-        <v>1937.440293903863</v>
+        <v>2347.733514499617</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.354570001923</v>
+        <v>2347.733514499617</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.408847140402</v>
+        <v>2555.787791638096</v>
       </c>
       <c r="R24" t="n">
         <v>2555.787791638096</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>871.1048545967236</v>
+        <v>871.1048545967228</v>
       </c>
       <c r="C25" t="n">
-        <v>734.3387207656629</v>
+        <v>734.3387207656622</v>
       </c>
       <c r="D25" t="n">
-        <v>616.3921304501732</v>
+        <v>616.3921304501727</v>
       </c>
       <c r="E25" t="n">
-        <v>500.6490859646262</v>
+        <v>500.6490859646258</v>
       </c>
       <c r="F25" t="n">
-        <v>385.929187563562</v>
+        <v>385.9291875635617</v>
       </c>
       <c r="G25" t="n">
-        <v>250.7342203562313</v>
+        <v>250.734220356231</v>
       </c>
       <c r="H25" t="n">
-        <v>139.6906124349338</v>
+        <v>139.6906124349337</v>
       </c>
       <c r="I25" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J25" t="n">
-        <v>184.7552674583211</v>
+        <v>184.755267458321</v>
       </c>
       <c r="K25" t="n">
         <v>458.7398479270803</v>
       </c>
       <c r="L25" t="n">
-        <v>856.0547090596085</v>
+        <v>856.0547090596086</v>
       </c>
       <c r="M25" t="n">
-        <v>1283.642688728454</v>
+        <v>1283.642688728452</v>
       </c>
       <c r="N25" t="n">
-        <v>1707.247908088588</v>
+        <v>1707.247908088586</v>
       </c>
       <c r="O25" t="n">
-        <v>2084.906526569837</v>
+        <v>2084.906526569835</v>
       </c>
       <c r="P25" t="n">
-        <v>2389.088653551363</v>
+        <v>2389.088653551361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2525.953731954917</v>
+        <v>2525.953731954915</v>
       </c>
       <c r="R25" t="n">
-        <v>2483.482953883664</v>
+        <v>2483.482953883663</v>
       </c>
       <c r="S25" t="n">
-        <v>2329.854405676033</v>
+        <v>2329.854405676032</v>
       </c>
       <c r="T25" t="n">
-        <v>2141.701253441669</v>
+        <v>2141.701253441667</v>
       </c>
       <c r="U25" t="n">
-        <v>1884.786862227127</v>
+        <v>1884.786862227126</v>
       </c>
       <c r="V25" t="n">
-        <v>1662.272423118087</v>
+        <v>1662.272423118086</v>
       </c>
       <c r="W25" t="n">
-        <v>1405.025302177972</v>
+        <v>1405.025302177971</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.205800376801</v>
+        <v>1209.2058003768</v>
       </c>
       <c r="Y25" t="n">
-        <v>1020.583270330117</v>
+        <v>1020.583270330116</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2119.866366233908</v>
+        <v>2108.751712612711</v>
       </c>
       <c r="C26" t="n">
-        <v>1783.073898390343</v>
+        <v>1771.959244769145</v>
       </c>
       <c r="D26" t="n">
         <v>1456.978248880439</v>
@@ -6230,7 +6230,7 @@
         <v>763.9324820293912</v>
       </c>
       <c r="L26" t="n">
-        <v>1331.448438036226</v>
+        <v>1331.448438036227</v>
       </c>
       <c r="M26" t="n">
         <v>1994.588725155947</v>
@@ -6251,25 +6251,25 @@
         <v>4234.708136693756</v>
       </c>
       <c r="S26" t="n">
-        <v>4184.863721038367</v>
+        <v>4173.749067417169</v>
       </c>
       <c r="T26" t="n">
-        <v>4014.352772297183</v>
+        <v>4003.238118675986</v>
       </c>
       <c r="U26" t="n">
-        <v>3793.052593664375</v>
+        <v>3781.937940043178</v>
       </c>
       <c r="V26" t="n">
-        <v>3494.159755417651</v>
+        <v>3483.045101796453</v>
       </c>
       <c r="W26" t="n">
-        <v>3173.561149244383</v>
+        <v>3162.446495623185</v>
       </c>
       <c r="X26" t="n">
-        <v>2832.265440080149</v>
+        <v>2821.150786458952</v>
       </c>
       <c r="Y26" t="n">
-        <v>2474.296157201184</v>
+        <v>2463.181503579986</v>
       </c>
     </row>
     <row r="27">
@@ -6306,13 +6306,13 @@
         <v>215.6838425658398</v>
       </c>
       <c r="K27" t="n">
-        <v>215.6838425658398</v>
+        <v>517.7208938528292</v>
       </c>
       <c r="L27" t="n">
-        <v>308.933306632939</v>
+        <v>970.1695241505649</v>
       </c>
       <c r="M27" t="n">
-        <v>856.2763857394585</v>
+        <v>970.1695241505649</v>
       </c>
       <c r="N27" t="n">
         <v>1432.514652395512</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>871.1048545967229</v>
+        <v>871.1048545967226</v>
       </c>
       <c r="C28" t="n">
-        <v>734.3387207656623</v>
+        <v>734.3387207656619</v>
       </c>
       <c r="D28" t="n">
-        <v>616.3921304501728</v>
+        <v>616.3921304501724</v>
       </c>
       <c r="E28" t="n">
-        <v>500.649085964626</v>
+        <v>500.6490859646256</v>
       </c>
       <c r="F28" t="n">
-        <v>385.9291875635619</v>
+        <v>385.9291875635614</v>
       </c>
       <c r="G28" t="n">
-        <v>250.7342203562312</v>
+        <v>250.7342203562307</v>
       </c>
       <c r="H28" t="n">
-        <v>139.6906124349337</v>
+        <v>139.6906124349334</v>
       </c>
       <c r="I28" t="n">
         <v>84.69416273387513</v>
       </c>
       <c r="J28" t="n">
-        <v>184.7552674583211</v>
+        <v>184.7552674583212</v>
       </c>
       <c r="K28" t="n">
         <v>458.7398479270804</v>
@@ -6391,22 +6391,22 @@
         <v>856.0547090596087</v>
       </c>
       <c r="M28" t="n">
-        <v>1283.642688728452</v>
+        <v>1283.642688728453</v>
       </c>
       <c r="N28" t="n">
-        <v>1707.247908088586</v>
+        <v>1707.247908088587</v>
       </c>
       <c r="O28" t="n">
         <v>2084.906526569836</v>
       </c>
       <c r="P28" t="n">
-        <v>2389.088653551361</v>
+        <v>2389.088653551362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2525.953731954914</v>
+        <v>2525.953731954915</v>
       </c>
       <c r="R28" t="n">
-        <v>2483.482953883662</v>
+        <v>2483.482953883663</v>
       </c>
       <c r="S28" t="n">
         <v>2329.854405676032</v>
@@ -6418,10 +6418,10 @@
         <v>1884.786862227126</v>
       </c>
       <c r="V28" t="n">
-        <v>1662.272423118086</v>
+        <v>1662.272423118085</v>
       </c>
       <c r="W28" t="n">
-        <v>1405.025302177972</v>
+        <v>1405.025302177971</v>
       </c>
       <c r="X28" t="n">
         <v>1209.2058003768</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2119.866366233909</v>
+        <v>2108.751712612713</v>
       </c>
       <c r="C29" t="n">
-        <v>1783.073898390343</v>
+        <v>1771.959244769147</v>
       </c>
       <c r="D29" t="n">
-        <v>1456.978248880439</v>
+        <v>1445.863595259243</v>
       </c>
       <c r="E29" t="n">
-        <v>1103.360045379041</v>
+        <v>1092.245391757845</v>
       </c>
       <c r="F29" t="n">
-        <v>724.5441896862794</v>
+        <v>724.5441896862792</v>
       </c>
       <c r="G29" t="n">
-        <v>342.3949010844894</v>
+        <v>342.3949010844893</v>
       </c>
       <c r="H29" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387516</v>
       </c>
       <c r="I29" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387516</v>
       </c>
       <c r="J29" t="n">
-        <v>336.2207744174735</v>
+        <v>336.2207744174748</v>
       </c>
       <c r="K29" t="n">
-        <v>763.9324820293912</v>
+        <v>763.9324820293918</v>
       </c>
       <c r="L29" t="n">
-        <v>1331.448438036226</v>
+        <v>1331.448438036228</v>
       </c>
       <c r="M29" t="n">
-        <v>1994.588725155947</v>
+        <v>1994.588725155949</v>
       </c>
       <c r="N29" t="n">
-        <v>2673.073123791923</v>
+        <v>2673.073123791925</v>
       </c>
       <c r="O29" t="n">
-        <v>3300.411440624012</v>
+        <v>3300.411440624014</v>
       </c>
       <c r="P29" t="n">
-        <v>3801.329179196327</v>
+        <v>3801.329179196329</v>
       </c>
       <c r="Q29" t="n">
-        <v>4129.324793036379</v>
+        <v>4129.32479303638</v>
       </c>
       <c r="R29" t="n">
-        <v>4234.708136693756</v>
+        <v>4234.708136693758</v>
       </c>
       <c r="S29" t="n">
-        <v>4173.749067417169</v>
+        <v>4173.749067417171</v>
       </c>
       <c r="T29" t="n">
-        <v>4003.238118675986</v>
+        <v>4003.238118675988</v>
       </c>
       <c r="U29" t="n">
-        <v>3781.937940043178</v>
+        <v>3781.937940043179</v>
       </c>
       <c r="V29" t="n">
-        <v>3483.045101796453</v>
+        <v>3483.045101796455</v>
       </c>
       <c r="W29" t="n">
-        <v>3162.446495623185</v>
+        <v>3162.446495623187</v>
       </c>
       <c r="X29" t="n">
-        <v>2832.26544008015</v>
+        <v>2821.150786458954</v>
       </c>
       <c r="Y29" t="n">
-        <v>2474.296157201184</v>
+        <v>2463.181503579988</v>
       </c>
     </row>
     <row r="30">
@@ -6528,31 +6528,31 @@
         <v>458.932879308553</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3983213354379</v>
+        <v>312.398321335438</v>
       </c>
       <c r="G30" t="n">
         <v>176.4381718563851</v>
       </c>
       <c r="H30" t="n">
-        <v>89.82793282627232</v>
+        <v>89.82793282627235</v>
       </c>
       <c r="I30" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387516</v>
       </c>
       <c r="J30" t="n">
-        <v>84.69416273387513</v>
+        <v>215.6838425658398</v>
       </c>
       <c r="K30" t="n">
-        <v>84.69416273387513</v>
+        <v>517.7208938528294</v>
       </c>
       <c r="L30" t="n">
-        <v>308.933306632939</v>
+        <v>970.1695241505649</v>
       </c>
       <c r="M30" t="n">
-        <v>856.2763857394585</v>
+        <v>970.1695241505649</v>
       </c>
       <c r="N30" t="n">
-        <v>1432.514652395512</v>
+        <v>1546.407790806619</v>
       </c>
       <c r="O30" t="n">
         <v>1937.440293903863</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>871.1048545967228</v>
+        <v>871.104854596723</v>
       </c>
       <c r="C31" t="n">
-        <v>734.3387207656622</v>
+        <v>734.3387207656624</v>
       </c>
       <c r="D31" t="n">
-        <v>616.3921304501727</v>
+        <v>616.3921304501729</v>
       </c>
       <c r="E31" t="n">
-        <v>500.6490859646258</v>
+        <v>500.649085964626</v>
       </c>
       <c r="F31" t="n">
-        <v>385.9291875635616</v>
+        <v>385.9291875635618</v>
       </c>
       <c r="G31" t="n">
-        <v>250.7342203562311</v>
+        <v>250.734220356231</v>
       </c>
       <c r="H31" t="n">
         <v>139.6906124349337</v>
       </c>
       <c r="I31" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387516</v>
       </c>
       <c r="J31" t="n">
         <v>184.7552674583211</v>
       </c>
       <c r="K31" t="n">
-        <v>458.7398479270804</v>
+        <v>458.7398479270803</v>
       </c>
       <c r="L31" t="n">
-        <v>856.0547090596085</v>
+        <v>856.0547090596087</v>
       </c>
       <c r="M31" t="n">
-        <v>1283.642688728452</v>
+        <v>1283.642688728453</v>
       </c>
       <c r="N31" t="n">
-        <v>1707.247908088586</v>
+        <v>1707.247908088587</v>
       </c>
       <c r="O31" t="n">
-        <v>2084.906526569835</v>
+        <v>2084.906526569836</v>
       </c>
       <c r="P31" t="n">
-        <v>2389.088653551361</v>
+        <v>2389.088653551362</v>
       </c>
       <c r="Q31" t="n">
         <v>2525.953731954915</v>
@@ -6649,22 +6649,22 @@
         <v>2329.854405676032</v>
       </c>
       <c r="T31" t="n">
-        <v>2141.701253441667</v>
+        <v>2141.701253441668</v>
       </c>
       <c r="U31" t="n">
-        <v>1884.786862227126</v>
+        <v>1884.786862227127</v>
       </c>
       <c r="V31" t="n">
         <v>1662.272423118086</v>
       </c>
       <c r="W31" t="n">
-        <v>1405.025302177971</v>
+        <v>1405.025302177972</v>
       </c>
       <c r="X31" t="n">
         <v>1209.2058003768</v>
       </c>
       <c r="Y31" t="n">
-        <v>1020.583270330116</v>
+        <v>1020.583270330117</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1779.104379239916</v>
       </c>
       <c r="D32" t="n">
-        <v>1453.802633560097</v>
+        <v>1453.802633560098</v>
       </c>
       <c r="E32" t="n">
         <v>1100.978333888785</v>
       </c>
       <c r="F32" t="n">
-        <v>722.9563820261087</v>
+        <v>722.9563820261089</v>
       </c>
       <c r="G32" t="n">
         <v>341.6009972544039</v>
@@ -6704,7 +6704,7 @@
         <v>763.9324820293909</v>
       </c>
       <c r="L32" t="n">
-        <v>1331.448438036227</v>
+        <v>1331.448438036226</v>
       </c>
       <c r="M32" t="n">
         <v>1994.588725155947</v>
@@ -6716,7 +6716,7 @@
         <v>3300.411440624013</v>
       </c>
       <c r="P32" t="n">
-        <v>3801.329179196329</v>
+        <v>3801.329179196327</v>
       </c>
       <c r="Q32" t="n">
         <v>4129.32479303638</v>
@@ -6780,16 +6780,16 @@
         <v>84.69416273387516</v>
       </c>
       <c r="K33" t="n">
-        <v>84.69416273387516</v>
+        <v>386.7312140208647</v>
       </c>
       <c r="L33" t="n">
-        <v>308.933306632939</v>
+        <v>839.1798443186003</v>
       </c>
       <c r="M33" t="n">
-        <v>856.2763857394585</v>
+        <v>1386.52292342512</v>
       </c>
       <c r="N33" t="n">
-        <v>1432.514652395512</v>
+        <v>1937.440293903863</v>
       </c>
       <c r="O33" t="n">
         <v>1937.440293903863</v>
@@ -6859,13 +6859,13 @@
         <v>185.5333726021879</v>
       </c>
       <c r="K34" t="n">
-        <v>460.2960582148139</v>
+        <v>441.3687557825131</v>
       </c>
       <c r="L34" t="n">
-        <v>858.3890244912091</v>
+        <v>839.4617220589082</v>
       </c>
       <c r="M34" t="n">
-        <v>1286.75510930392</v>
+        <v>1267.827806871619</v>
       </c>
       <c r="N34" t="n">
         <v>1692.21113137562</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2115.102943253396</v>
+        <v>2115.102943253395</v>
       </c>
       <c r="C35" t="n">
         <v>1779.104379239915</v>
@@ -6926,55 +6926,55 @@
         <v>722.9563820261083</v>
       </c>
       <c r="G35" t="n">
-        <v>341.6009972544039</v>
+        <v>341.6009972544038</v>
       </c>
       <c r="H35" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="I35" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="J35" t="n">
-        <v>336.2207744174748</v>
+        <v>336.2207744174735</v>
       </c>
       <c r="K35" t="n">
-        <v>763.9324820293925</v>
+        <v>763.9324820293912</v>
       </c>
       <c r="L35" t="n">
-        <v>1331.448438036228</v>
+        <v>1331.448438036227</v>
       </c>
       <c r="M35" t="n">
-        <v>1994.588725155949</v>
+        <v>1994.588725155947</v>
       </c>
       <c r="N35" t="n">
-        <v>2673.073123791925</v>
+        <v>2673.073123791923</v>
       </c>
       <c r="O35" t="n">
-        <v>3300.411440624014</v>
+        <v>3300.411440624012</v>
       </c>
       <c r="P35" t="n">
-        <v>3801.329179196329</v>
+        <v>3801.329179196327</v>
       </c>
       <c r="Q35" t="n">
-        <v>4129.32479303638</v>
+        <v>4129.324793036379</v>
       </c>
       <c r="R35" t="n">
-        <v>4234.708136693758</v>
+        <v>4234.708136693756</v>
       </c>
       <c r="S35" t="n">
-        <v>4174.542971247257</v>
+        <v>4174.542971247255</v>
       </c>
       <c r="T35" t="n">
-        <v>4004.825926336159</v>
+        <v>4004.825926336157</v>
       </c>
       <c r="U35" t="n">
-        <v>3784.319651533436</v>
+        <v>3784.319651533434</v>
       </c>
       <c r="V35" t="n">
-        <v>3486.220717116797</v>
+        <v>3486.220717116796</v>
       </c>
       <c r="W35" t="n">
-        <v>3166.416014773614</v>
+        <v>3166.416014773613</v>
       </c>
       <c r="X35" t="n">
         <v>2825.914209439466</v>
@@ -7002,40 +7002,40 @@
         <v>458.932879308553</v>
       </c>
       <c r="F36" t="n">
-        <v>312.398321335438</v>
+        <v>312.3983213354379</v>
       </c>
       <c r="G36" t="n">
         <v>176.4381718563851</v>
       </c>
       <c r="H36" t="n">
-        <v>89.82793282627235</v>
+        <v>89.82793282627232</v>
       </c>
       <c r="I36" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="J36" t="n">
-        <v>172.7951227824467</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="K36" t="n">
-        <v>474.8321740694362</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="L36" t="n">
-        <v>927.2808043671719</v>
+        <v>537.1427930316107</v>
       </c>
       <c r="M36" t="n">
-        <v>1474.623883473691</v>
+        <v>1084.48587213813</v>
       </c>
       <c r="N36" t="n">
-        <v>2050.862150129745</v>
+        <v>1660.724138794184</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.787791638096</v>
+        <v>2165.649780302535</v>
       </c>
       <c r="P36" t="n">
-        <v>2555.787791638096</v>
+        <v>2323.354570001923</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.787791638096</v>
+        <v>2531.408847140402</v>
       </c>
       <c r="R36" t="n">
         <v>2555.787791638096</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>865.5475277861249</v>
+        <v>865.547527786124</v>
       </c>
       <c r="C37" t="n">
-        <v>729.5752977851496</v>
+        <v>729.5752977851488</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4226112997455</v>
+        <v>612.4226112997449</v>
       </c>
       <c r="E37" t="n">
-        <v>497.4734706442841</v>
+        <v>497.4734706442836</v>
       </c>
       <c r="F37" t="n">
-        <v>383.5474760733055</v>
+        <v>383.547476073305</v>
       </c>
       <c r="G37" t="n">
-        <v>249.1464126960602</v>
+        <v>249.1464126960599</v>
       </c>
       <c r="H37" t="n">
-        <v>138.8967086048483</v>
+        <v>138.8967086048481</v>
       </c>
       <c r="I37" t="n">
-        <v>84.69416273387516</v>
+        <v>84.69416273387513</v>
       </c>
       <c r="J37" t="n">
-        <v>166.6060701698871</v>
+        <v>166.6060701698838</v>
       </c>
       <c r="K37" t="n">
-        <v>441.3687557825131</v>
+        <v>441.3687557825099</v>
       </c>
       <c r="L37" t="n">
-        <v>839.4617220589082</v>
+        <v>839.4617220589051</v>
       </c>
       <c r="M37" t="n">
-        <v>1267.827806871619</v>
+        <v>1267.827806871616</v>
       </c>
       <c r="N37" t="n">
-        <v>1692.21113137562</v>
+        <v>1692.211131375617</v>
       </c>
       <c r="O37" t="n">
-        <v>2070.647855000735</v>
+        <v>2070.647855000733</v>
       </c>
       <c r="P37" t="n">
-        <v>2375.608087126128</v>
+        <v>2375.608087126126</v>
       </c>
       <c r="Q37" t="n">
-        <v>2513.251270673548</v>
+        <v>2513.251270673546</v>
       </c>
       <c r="R37" t="n">
-        <v>2471.574396432381</v>
+        <v>2471.574396432379</v>
       </c>
       <c r="S37" t="n">
-        <v>2318.739752054836</v>
+        <v>2318.739752054834</v>
       </c>
       <c r="T37" t="n">
-        <v>2131.380503650556</v>
+        <v>2131.380503650555</v>
       </c>
       <c r="U37" t="n">
-        <v>1875.260016266101</v>
+        <v>1875.2600162661</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.539480987146</v>
+        <v>1653.539480987145</v>
       </c>
       <c r="W37" t="n">
-        <v>1397.086263877117</v>
+        <v>1397.086263877116</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.060665906031</v>
+        <v>1202.06066590603</v>
       </c>
       <c r="Y37" t="n">
-        <v>1014.232039689433</v>
+        <v>1014.232039689432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2115.102943253396</v>
+        <v>2115.102943253397</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.104379239916</v>
+        <v>1779.104379239918</v>
       </c>
       <c r="D38" t="n">
-        <v>1453.802633560097</v>
+        <v>1453.802633560099</v>
       </c>
       <c r="E38" t="n">
-        <v>1100.978333888785</v>
+        <v>1100.978333888786</v>
       </c>
       <c r="F38" t="n">
-        <v>722.9563820261087</v>
+        <v>722.9563820261108</v>
       </c>
       <c r="G38" t="n">
-        <v>341.6009972544038</v>
+        <v>341.6009972544064</v>
       </c>
       <c r="H38" t="n">
         <v>84.69416273387516</v>
@@ -7172,19 +7172,19 @@
         <v>84.69416273387516</v>
       </c>
       <c r="J38" t="n">
-        <v>336.2207744174748</v>
+        <v>336.2207744174734</v>
       </c>
       <c r="K38" t="n">
-        <v>763.9324820293918</v>
+        <v>763.9324820293912</v>
       </c>
       <c r="L38" t="n">
-        <v>1331.448438036228</v>
+        <v>1331.448438036227</v>
       </c>
       <c r="M38" t="n">
-        <v>1994.588725155949</v>
+        <v>1994.588725155948</v>
       </c>
       <c r="N38" t="n">
-        <v>2673.073123791925</v>
+        <v>2673.073123791924</v>
       </c>
       <c r="O38" t="n">
         <v>3300.411440624014</v>
@@ -7205,19 +7205,19 @@
         <v>4004.825926336159</v>
       </c>
       <c r="U38" t="n">
-        <v>3784.319651533435</v>
+        <v>3784.319651533436</v>
       </c>
       <c r="V38" t="n">
         <v>3486.220717116797</v>
       </c>
       <c r="W38" t="n">
-        <v>3166.416014773614</v>
+        <v>3166.416014773615</v>
       </c>
       <c r="X38" t="n">
-        <v>2825.914209439466</v>
+        <v>2825.914209439467</v>
       </c>
       <c r="Y38" t="n">
-        <v>2468.738830390585</v>
+        <v>2468.738830390587</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>84.69416273387516</v>
       </c>
       <c r="J39" t="n">
-        <v>172.7951227824467</v>
+        <v>84.69416273387516</v>
       </c>
       <c r="K39" t="n">
-        <v>474.8321740694362</v>
+        <v>386.7312140208647</v>
       </c>
       <c r="L39" t="n">
-        <v>927.2808043671719</v>
+        <v>386.7312140208647</v>
       </c>
       <c r="M39" t="n">
-        <v>1474.623883473691</v>
+        <v>934.0742931273842</v>
       </c>
       <c r="N39" t="n">
-        <v>2050.862150129745</v>
+        <v>1432.514652395512</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.787791638096</v>
+        <v>1937.440293903863</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.787791638096</v>
+        <v>2323.354570001923</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.787791638096</v>
+        <v>2531.408847140402</v>
       </c>
       <c r="R39" t="n">
         <v>2555.787791638096</v>
@@ -7309,19 +7309,19 @@
         <v>865.547527786124</v>
       </c>
       <c r="C40" t="n">
-        <v>729.5752977851489</v>
+        <v>729.5752977851488</v>
       </c>
       <c r="D40" t="n">
-        <v>612.422611299745</v>
+        <v>612.4226112997449</v>
       </c>
       <c r="E40" t="n">
-        <v>497.4734706442837</v>
+        <v>497.4734706442836</v>
       </c>
       <c r="F40" t="n">
-        <v>383.5474760733051</v>
+        <v>383.547476073305</v>
       </c>
       <c r="G40" t="n">
-        <v>249.14641269606</v>
+        <v>249.1464126960599</v>
       </c>
       <c r="H40" t="n">
         <v>138.8967086048481</v>
@@ -7330,19 +7330,19 @@
         <v>84.69416273387516</v>
       </c>
       <c r="J40" t="n">
-        <v>185.533372602188</v>
+        <v>185.5333726021881</v>
       </c>
       <c r="K40" t="n">
-        <v>460.2960582148141</v>
+        <v>441.3687557825099</v>
       </c>
       <c r="L40" t="n">
-        <v>858.3890244912093</v>
+        <v>839.4617220589051</v>
       </c>
       <c r="M40" t="n">
-        <v>1286.75510930392</v>
+        <v>1267.827806871616</v>
       </c>
       <c r="N40" t="n">
-        <v>1711.138433807921</v>
+        <v>1692.211131375617</v>
       </c>
       <c r="O40" t="n">
         <v>2070.647855000733</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2209.717301918655</v>
+        <v>1857.742550478627</v>
       </c>
       <c r="C41" t="n">
-        <v>1841.548688808329</v>
+        <v>1489.573937368301</v>
       </c>
       <c r="D41" t="n">
-        <v>1594.651456903825</v>
+        <v>1132.102142591636</v>
       </c>
       <c r="E41" t="n">
-        <v>1209.657108135666</v>
+        <v>747.1077938234778</v>
       </c>
       <c r="F41" t="n">
-        <v>799.4651071761434</v>
+        <v>336.9157928639558</v>
       </c>
       <c r="G41" t="n">
-        <v>385.9396733075927</v>
+        <v>96.86278969021754</v>
       </c>
       <c r="H41" t="n">
-        <v>96.86278969021765</v>
+        <v>96.86278969021754</v>
       </c>
       <c r="I41" t="n">
         <v>84.69416273387516</v>
       </c>
       <c r="J41" t="n">
-        <v>336.2207744174748</v>
+        <v>336.2207744174734</v>
       </c>
       <c r="K41" t="n">
-        <v>763.9324820293918</v>
+        <v>763.9324820293912</v>
       </c>
       <c r="L41" t="n">
-        <v>1331.448438036228</v>
+        <v>1331.448438036227</v>
       </c>
       <c r="M41" t="n">
-        <v>1994.588725155949</v>
+        <v>1994.588725155948</v>
       </c>
       <c r="N41" t="n">
-        <v>2673.073123791925</v>
+        <v>2673.073123791924</v>
       </c>
       <c r="O41" t="n">
         <v>3300.411440624014</v>
@@ -7436,25 +7436,25 @@
         <v>4234.708136693758</v>
       </c>
       <c r="S41" t="n">
-        <v>4142.37292215041</v>
+        <v>4142.372922150411</v>
       </c>
       <c r="T41" t="n">
-        <v>3940.485828142466</v>
+        <v>3940.485828142467</v>
       </c>
       <c r="U41" t="n">
-        <v>3687.809504242897</v>
+        <v>3687.809504242898</v>
       </c>
       <c r="V41" t="n">
-        <v>3357.540520729412</v>
+        <v>3357.540520729413</v>
       </c>
       <c r="W41" t="n">
-        <v>3357.540520729412</v>
+        <v>3005.565769289384</v>
       </c>
       <c r="X41" t="n">
-        <v>2984.868666298418</v>
+        <v>2632.89391485839</v>
       </c>
       <c r="Y41" t="n">
-        <v>2595.523238152692</v>
+        <v>2243.548486712664</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>84.69416273387516</v>
       </c>
       <c r="K42" t="n">
-        <v>84.69416273387516</v>
+        <v>386.7312140208647</v>
       </c>
       <c r="L42" t="n">
-        <v>308.933306632939</v>
+        <v>839.1798443186003</v>
       </c>
       <c r="M42" t="n">
-        <v>856.2763857394585</v>
+        <v>1386.52292342512</v>
       </c>
       <c r="N42" t="n">
-        <v>1432.514652395512</v>
+        <v>1937.440293903863</v>
       </c>
       <c r="O42" t="n">
         <v>1937.440293903863</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>837.7941640221377</v>
+        <v>467.5086830362521</v>
       </c>
       <c r="C43" t="n">
-        <v>669.6518849243163</v>
+        <v>467.5086830362521</v>
       </c>
       <c r="D43" t="n">
-        <v>520.329149342066</v>
+        <v>318.185947454002</v>
       </c>
       <c r="E43" t="n">
-        <v>373.2099595897583</v>
+        <v>171.0667577016944</v>
       </c>
       <c r="F43" t="n">
-        <v>227.1139159219334</v>
+        <v>171.0667577016944</v>
       </c>
       <c r="G43" t="n">
-        <v>227.1139159219334</v>
+        <v>171.0667577016944</v>
       </c>
       <c r="H43" t="n">
-        <v>84.69416273387516</v>
+        <v>171.0667577016944</v>
       </c>
       <c r="I43" t="n">
         <v>84.69416273387516</v>
       </c>
       <c r="J43" t="n">
-        <v>154.0035074823689</v>
+        <v>154.003507482369</v>
       </c>
       <c r="K43" t="n">
-        <v>397.2363279751759</v>
+        <v>397.2363279751761</v>
       </c>
       <c r="L43" t="n">
-        <v>763.799429131752</v>
+        <v>763.7994291317523</v>
       </c>
       <c r="M43" t="n">
         <v>1160.635648824644</v>
@@ -7585,34 +7585,34 @@
         <v>1900.395966714123</v>
       </c>
       <c r="P43" t="n">
-        <v>2173.826333719696</v>
+        <v>2173.826333719697</v>
       </c>
       <c r="Q43" t="n">
         <v>2279.939652147298</v>
       </c>
       <c r="R43" t="n">
-        <v>2206.092728809284</v>
+        <v>2206.092728809285</v>
       </c>
       <c r="S43" t="n">
         <v>2021.088035334893</v>
       </c>
       <c r="T43" t="n">
-        <v>1801.558737833767</v>
+        <v>1801.558737833768</v>
       </c>
       <c r="U43" t="n">
-        <v>1534.467638297099</v>
+        <v>1513.268201352467</v>
       </c>
       <c r="V43" t="n">
-        <v>1534.467638297099</v>
+        <v>1259.377616976665</v>
       </c>
       <c r="W43" t="n">
-        <v>1245.844372090224</v>
+        <v>970.7543507697901</v>
       </c>
       <c r="X43" t="n">
-        <v>1018.648725022292</v>
+        <v>743.5587037018583</v>
       </c>
       <c r="Y43" t="n">
-        <v>1018.648725022292</v>
+        <v>523.5600283884138</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1857.742550478625</v>
+        <v>1857.742550478627</v>
       </c>
       <c r="C44" t="n">
-        <v>1582.482829947481</v>
+        <v>1489.5739373683</v>
       </c>
       <c r="D44" t="n">
-        <v>1582.482829947481</v>
+        <v>1132.102142591636</v>
       </c>
       <c r="E44" t="n">
-        <v>1197.488481179323</v>
+        <v>747.1077938234769</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2964802198007</v>
+        <v>373.77104635125</v>
       </c>
       <c r="G44" t="n">
         <v>373.77104635125</v>
       </c>
       <c r="H44" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="I44" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J44" t="n">
-        <v>336.2207744174735</v>
+        <v>336.2207744174748</v>
       </c>
       <c r="K44" t="n">
-        <v>763.9324820293912</v>
+        <v>763.9324820293923</v>
       </c>
       <c r="L44" t="n">
-        <v>1331.448438036227</v>
+        <v>1331.448438036228</v>
       </c>
       <c r="M44" t="n">
-        <v>1994.588725155947</v>
+        <v>1994.588725155948</v>
       </c>
       <c r="N44" t="n">
-        <v>2673.073123791923</v>
+        <v>2673.073123791924</v>
       </c>
       <c r="O44" t="n">
-        <v>3300.411440624012</v>
+        <v>3300.411440624013</v>
       </c>
       <c r="P44" t="n">
-        <v>3801.329179196327</v>
+        <v>3801.329179196328</v>
       </c>
       <c r="Q44" t="n">
-        <v>4129.324793036379</v>
+        <v>4129.32479303638</v>
       </c>
       <c r="R44" t="n">
-        <v>4234.708136693756</v>
+        <v>4234.708136693757</v>
       </c>
       <c r="S44" t="n">
-        <v>4142.372922150408</v>
+        <v>4142.37292215041</v>
       </c>
       <c r="T44" t="n">
-        <v>3940.485828142464</v>
+        <v>3940.485828142466</v>
       </c>
       <c r="U44" t="n">
-        <v>3687.809504242895</v>
+        <v>3687.809504242897</v>
       </c>
       <c r="V44" t="n">
-        <v>3357.54052072941</v>
+        <v>3357.540520729412</v>
       </c>
       <c r="W44" t="n">
-        <v>3005.565769289381</v>
+        <v>3005.565769289383</v>
       </c>
       <c r="X44" t="n">
-        <v>2632.893914858387</v>
+        <v>2632.893914858389</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.548486712661</v>
+        <v>2243.548486712663</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>458.932879308553</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3983213354379</v>
+        <v>312.398321335438</v>
       </c>
       <c r="G45" t="n">
         <v>176.4381718563851</v>
       </c>
       <c r="H45" t="n">
-        <v>89.82793282627232</v>
+        <v>89.82793282627235</v>
       </c>
       <c r="I45" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J45" t="n">
-        <v>84.69416273387513</v>
+        <v>215.6838425658397</v>
       </c>
       <c r="K45" t="n">
-        <v>84.69416273387513</v>
+        <v>215.6838425658397</v>
       </c>
       <c r="L45" t="n">
-        <v>308.933306632939</v>
+        <v>308.9333066329395</v>
       </c>
       <c r="M45" t="n">
-        <v>856.2763857394585</v>
+        <v>856.2763857394591</v>
       </c>
       <c r="N45" t="n">
-        <v>1432.514652395512</v>
+        <v>1432.514652395513</v>
       </c>
       <c r="O45" t="n">
-        <v>1937.440293903863</v>
+        <v>1937.440293903864</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.354570001923</v>
+        <v>2323.354570001924</v>
       </c>
       <c r="Q45" t="n">
         <v>2531.408847140402</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>601.5570842006636</v>
+        <v>342.7054673882592</v>
       </c>
       <c r="C46" t="n">
-        <v>543.007763978275</v>
+        <v>342.7054673882592</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6850283960247</v>
+        <v>342.7054673882592</v>
       </c>
       <c r="E46" t="n">
-        <v>393.6850283960247</v>
+        <v>342.7054673882592</v>
       </c>
       <c r="F46" t="n">
-        <v>393.6850283960247</v>
+        <v>342.7054673882592</v>
       </c>
       <c r="G46" t="n">
-        <v>227.1139159219333</v>
+        <v>313.4865108897525</v>
       </c>
       <c r="H46" t="n">
-        <v>84.69416273387513</v>
+        <v>171.0667577016944</v>
       </c>
       <c r="I46" t="n">
-        <v>84.69416273387513</v>
+        <v>84.69416273387515</v>
       </c>
       <c r="J46" t="n">
-        <v>154.0035074823689</v>
+        <v>154.003507482369</v>
       </c>
       <c r="K46" t="n">
         <v>397.236327975176</v>
       </c>
       <c r="L46" t="n">
-        <v>763.799429131752</v>
+        <v>763.7994291317523</v>
       </c>
       <c r="M46" t="n">
         <v>1160.635648824644</v>
@@ -7828,28 +7828,28 @@
         <v>2279.939652147298</v>
       </c>
       <c r="R46" t="n">
-        <v>2279.939652147298</v>
+        <v>2206.092728809284</v>
       </c>
       <c r="S46" t="n">
-        <v>2279.939652147298</v>
+        <v>2021.088035334893</v>
       </c>
       <c r="T46" t="n">
-        <v>2060.410354646172</v>
+        <v>1801.558737833768</v>
       </c>
       <c r="U46" t="n">
-        <v>1772.119818164871</v>
+        <v>1513.268201352466</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.229233789069</v>
+        <v>1259.377616976665</v>
       </c>
       <c r="W46" t="n">
-        <v>1229.605967582194</v>
+        <v>970.7543507697897</v>
       </c>
       <c r="X46" t="n">
-        <v>1002.410320514262</v>
+        <v>743.5587037018579</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.4116452008178</v>
+        <v>523.5600283884133</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K2" t="n">
-        <v>57.8521323086317</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L2" t="n">
         <v>28.8362588753597</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.53987477884264</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P2" t="n">
-        <v>42.66898511507466</v>
+        <v>47.04693691028752</v>
       </c>
       <c r="Q2" t="n">
         <v>85.26425743221384</v>
@@ -8140,10 +8140,10 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
-        <v>47.4359690887577</v>
+        <v>51.81392088397056</v>
       </c>
       <c r="M4" t="n">
-        <v>51.285670034278</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N4" t="n">
         <v>42.23779755379654</v>
@@ -8152,7 +8152,7 @@
         <v>59.87999055852636</v>
       </c>
       <c r="P4" t="n">
-        <v>70.96632025130917</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,10 +8216,10 @@
         <v>75.52794808997315</v>
       </c>
       <c r="K5" t="n">
-        <v>56.05824978144794</v>
+        <v>51.64037691895487</v>
       </c>
       <c r="L5" t="n">
-        <v>26.78994699523963</v>
+        <v>31.2078198577327</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.85315158552481</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P5" t="n">
-        <v>40.80429423377234</v>
+        <v>47.68033997548378</v>
       </c>
       <c r="Q5" t="n">
         <v>79.30166562967011</v>
@@ -8374,19 +8374,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>59.99978994537916</v>
+        <v>66.8758356870906</v>
       </c>
       <c r="L7" t="n">
-        <v>53.44724320024197</v>
+        <v>53.16942317027382</v>
       </c>
       <c r="M7" t="n">
         <v>45.81160299249012</v>
       </c>
       <c r="N7" t="n">
-        <v>43.66145635451461</v>
+        <v>36.78541061280318</v>
       </c>
       <c r="O7" t="n">
-        <v>61.09377793786389</v>
+        <v>61.37159796783205</v>
       </c>
       <c r="P7" t="n">
         <v>72.76092136617375</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>75.52794808997315</v>
+        <v>68.65190234826171</v>
       </c>
       <c r="K8" t="n">
         <v>56.05824978144794</v>
       </c>
       <c r="L8" t="n">
-        <v>26.78994699523963</v>
+        <v>33.66599273695107</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.85315158552481</v>
+        <v>6.977105843813376</v>
       </c>
       <c r="P8" t="n">
         <v>40.80429423377234</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.30166562967011</v>
+        <v>86.17771137138155</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8611,16 +8611,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>59.99978994537916</v>
+        <v>66.59801565712245</v>
       </c>
       <c r="L10" t="n">
-        <v>53.44724320024197</v>
+        <v>46.57119745853053</v>
       </c>
       <c r="M10" t="n">
         <v>45.81160299249012</v>
       </c>
       <c r="N10" t="n">
-        <v>43.38363632454646</v>
+        <v>43.66145635451461</v>
       </c>
       <c r="O10" t="n">
         <v>61.37159796783205</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.00350708498634</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>11.00350708498502</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>11.00350708498439</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.0035070849855</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.00350708498627</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>11.00350708498223</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>11.00350708498439</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.00350708498537</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.00350708498502</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>11.00350708498434</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>11.0035070849853</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>11.0035070849854</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.055333763768431e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>11.00350708498348</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>11.00350708498604</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>109.468817243439</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>171.7377063878642</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.1861147812011</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>348.4550039256284</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>123.5551834915126</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>166.4608563068431</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>144.6350832311466</v>
       </c>
       <c r="G43" t="n">
-        <v>164.9054013493505</v>
+        <v>164.9054013493504</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.9955556561775</v>
       </c>
       <c r="I43" t="n">
-        <v>85.50886901814114</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>20.98744257518729</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>251.3516785320434</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.7986885603102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25865,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>91.97980365339106</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>353.8970768288983</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>36.48670095242221</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.3901795298651</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>12.04694068677904</v>
+        <v>12.04694068677898</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>108.4970292866785</v>
+        <v>166.4608563068431</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>147.8295082264277</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6479978547846</v>
+        <v>145.6479978547845</v>
       </c>
       <c r="F46" t="n">
         <v>144.6350832311466</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>135.9786344158288</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.50886901814111</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.10845410463317</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1546465396476</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710559.7743255418</v>
+        <v>710559.7743255419</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710559.7743255418</v>
+        <v>710559.7743255422</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710559.7743255418</v>
+        <v>710559.7743255419</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>710559.7743255417</v>
+        <v>710559.7743255419</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>665213.8834418982</v>
+        <v>665213.8834418983</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738096.3295228905</v>
+        <v>738096.3295228904</v>
       </c>
       <c r="C2" t="n">
         <v>738428.7738974995</v>
       </c>
       <c r="D2" t="n">
-        <v>738428.7738974995</v>
+        <v>738428.7738974997</v>
       </c>
       <c r="E2" t="n">
-        <v>738149.301630285</v>
+        <v>738149.3016302849</v>
       </c>
       <c r="F2" t="n">
-        <v>738149.3016302866</v>
+        <v>738149.3016302867</v>
       </c>
       <c r="G2" t="n">
         <v>738149.3016302865</v>
       </c>
       <c r="H2" t="n">
-        <v>738149.3016302866</v>
+        <v>738149.301630287</v>
       </c>
       <c r="I2" t="n">
-        <v>738149.301630287</v>
+        <v>738149.3016302867</v>
       </c>
       <c r="J2" t="n">
-        <v>738149.3016302866</v>
+        <v>738149.3016302851</v>
       </c>
       <c r="K2" t="n">
         <v>738149.3016302867</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778541</v>
+        <v>738937.5928778544</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778541</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="O2" t="n">
-        <v>690136.0054005468</v>
+        <v>690136.0054005467</v>
       </c>
       <c r="P2" t="n">
-        <v>690136.0054005469</v>
+        <v>690136.0054005466</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>1099408.423409359</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>6.609911906707566e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.802404118019954e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26672.37380187229</v>
+        <v>26672.37380187227</v>
       </c>
       <c r="K3" t="n">
-        <v>595.4875608169117</v>
+        <v>595.4875608170599</v>
       </c>
       <c r="L3" t="n">
-        <v>628.7718334277869</v>
+        <v>628.7718334277542</v>
       </c>
       <c r="M3" t="n">
         <v>262113.0135211402</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355974.889295201</v>
+        <v>355974.8892952009</v>
       </c>
       <c r="C4" t="n">
         <v>355060.6128496822</v>
@@ -26424,40 +26424,40 @@
         <v>355060.6128496822</v>
       </c>
       <c r="E4" t="n">
+        <v>45477.9166019699</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45477.9166019699</v>
+      </c>
+      <c r="G4" t="n">
+        <v>45477.91660196996</v>
+      </c>
+      <c r="H4" t="n">
         <v>45477.91660196988</v>
       </c>
-      <c r="F4" t="n">
-        <v>45477.91660196988</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>45477.91660196989</v>
       </c>
-      <c r="H4" t="n">
-        <v>45477.9166019699</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45477.91660196981</v>
-      </c>
       <c r="J4" t="n">
-        <v>45477.91660196988</v>
+        <v>45477.91660196987</v>
       </c>
       <c r="K4" t="n">
-        <v>45477.91660196985</v>
+        <v>45477.91660196986</v>
       </c>
       <c r="L4" t="n">
         <v>45973.88003673551</v>
       </c>
       <c r="M4" t="n">
-        <v>45973.88003673551</v>
+        <v>45973.88003673559</v>
       </c>
       <c r="N4" t="n">
         <v>45973.88003673559</v>
       </c>
       <c r="O4" t="n">
-        <v>14951.88722258732</v>
+        <v>14951.88722258744</v>
       </c>
       <c r="P4" t="n">
-        <v>14951.88722258736</v>
+        <v>14951.88722258744</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>41226.73635463382</v>
       </c>
       <c r="E5" t="n">
-        <v>94845.25573666504</v>
+        <v>94845.25573666507</v>
       </c>
       <c r="F5" t="n">
+        <v>94845.25573666509</v>
+      </c>
+      <c r="G5" t="n">
+        <v>94845.25573666509</v>
+      </c>
+      <c r="H5" t="n">
+        <v>94845.25573666509</v>
+      </c>
+      <c r="I5" t="n">
         <v>94845.25573666507</v>
-      </c>
-      <c r="G5" t="n">
-        <v>94845.25573666504</v>
-      </c>
-      <c r="H5" t="n">
-        <v>94845.25573666507</v>
-      </c>
-      <c r="I5" t="n">
-        <v>94845.2557366651</v>
       </c>
       <c r="J5" t="n">
         <v>94845.25573666507</v>
       </c>
       <c r="K5" t="n">
-        <v>94845.25573666507</v>
+        <v>94845.2557366651</v>
       </c>
       <c r="L5" t="n">
         <v>94911.33101074563</v>
       </c>
       <c r="M5" t="n">
-        <v>94911.33101074563</v>
+        <v>94911.33101074562</v>
       </c>
       <c r="N5" t="n">
         <v>94911.33101074565</v>
       </c>
       <c r="O5" t="n">
-        <v>92233.8721917981</v>
+        <v>92233.87219179812</v>
       </c>
       <c r="P5" t="n">
-        <v>92233.87219179807</v>
+        <v>92233.87219179809</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25264.10258696437</v>
+        <v>25261.76574431163</v>
       </c>
       <c r="C6" t="n">
-        <v>338456.7010113703</v>
+        <v>338455.2876253138</v>
       </c>
       <c r="D6" t="n">
-        <v>342141.4246931836</v>
+        <v>342140.0113071271</v>
       </c>
       <c r="E6" t="n">
-        <v>-501582.2941177085</v>
+        <v>-501584.4838156188</v>
       </c>
       <c r="F6" t="n">
-        <v>597826.1292916513</v>
+        <v>597823.9395937417</v>
       </c>
       <c r="G6" t="n">
-        <v>597826.1292916518</v>
+        <v>597823.9395937417</v>
       </c>
       <c r="H6" t="n">
-        <v>597826.1292916515</v>
+        <v>597823.939593742</v>
       </c>
       <c r="I6" t="n">
-        <v>597826.129291652</v>
+        <v>597823.939593742</v>
       </c>
       <c r="J6" t="n">
-        <v>571153.7554897794</v>
+        <v>571151.565791868</v>
       </c>
       <c r="K6" t="n">
-        <v>597230.6417308348</v>
+        <v>597228.4520329249</v>
       </c>
       <c r="L6" t="n">
-        <v>597423.6099969451</v>
+        <v>597423.6099969455</v>
       </c>
       <c r="M6" t="n">
-        <v>335939.3683092328</v>
+        <v>335939.3683092333</v>
       </c>
       <c r="N6" t="n">
-        <v>598052.3818303732</v>
+        <v>598052.3818303737</v>
       </c>
       <c r="O6" t="n">
-        <v>582950.2459861614</v>
+        <v>582814.6860209464</v>
       </c>
       <c r="P6" t="n">
-        <v>582950.2459861615</v>
+        <v>582814.6860209464</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>31.8483486058778</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31.8483486058778</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31.84834860587792</v>
+      </c>
+      <c r="H2" t="n">
         <v>31.84834860587779</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>31.84834860587779</v>
       </c>
-      <c r="G2" t="n">
-        <v>31.84834860587779</v>
-      </c>
-      <c r="H2" t="n">
-        <v>31.84834860587781</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.84834860587768</v>
-      </c>
       <c r="J2" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="K2" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="L2" t="n">
         <v>32.63431339766234</v>
       </c>
       <c r="M2" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="N2" t="n">
         <v>32.63431339766247</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
     </row>
     <row r="3">
@@ -26756,7 +26756,7 @@
         <v>1275.24005687947</v>
       </c>
       <c r="I3" t="n">
-        <v>1275.24005687947</v>
+        <v>1275.240056879469</v>
       </c>
       <c r="J3" t="n">
         <v>1275.24005687947</v>
@@ -26777,7 +26777,7 @@
         <v>1275.24005687947</v>
       </c>
       <c r="P3" t="n">
-        <v>1275.24005687947</v>
+        <v>1275.240056879469</v>
       </c>
     </row>
     <row r="4">
@@ -26808,19 +26808,19 @@
         <v>1058.677034173439</v>
       </c>
       <c r="I4" t="n">
-        <v>1058.67703417344</v>
+        <v>1058.677034173439</v>
       </c>
       <c r="J4" t="n">
         <v>1058.677034173439</v>
       </c>
       <c r="K4" t="n">
-        <v>1058.677034173439</v>
+        <v>1058.67703417344</v>
       </c>
       <c r="L4" t="n">
         <v>1058.67703417344</v>
       </c>
       <c r="M4" t="n">
-        <v>1058.67703417344</v>
+        <v>1058.677034173439</v>
       </c>
       <c r="N4" t="n">
         <v>1058.67703417344</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-1.35003119794419e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.84834860587789</v>
+        <v>31.84834860587778</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7859647917845898</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>945.8330489190207</v>
+        <v>945.8330489190209</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -26978,7 +26978,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1051.800988431727</v>
+        <v>1051.800988431728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.562286607642363</v>
+        <v>4.562286607642591</v>
       </c>
       <c r="K4" t="n">
-        <v>2.313759134068505</v>
+        <v>2.31375913406896</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1051.800988431727</v>
+        <v>1051.800988431728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.84834860587789</v>
+        <v>31.84834860587778</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1051.800988431727</v>
+        <v>1051.800988431728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>326.0456339133427</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9042228761834</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1392278518137</v>
+        <v>175.1207658078018</v>
       </c>
       <c r="T2" t="n">
         <v>217.3557120022016</v>
@@ -27436,7 +27436,7 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>323.189971862492</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>142.8827789569959</v>
       </c>
       <c r="E3" t="n">
-        <v>153.0827938477581</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I3" t="n">
-        <v>60.67845717669304</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>56.59722706556381</v>
       </c>
       <c r="S3" t="n">
-        <v>158.6512997408977</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T3" t="n">
-        <v>193.3183351791351</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U3" t="n">
-        <v>221.3329377235222</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.6765211169078</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>201.1204091696615</v>
       </c>
     </row>
     <row r="4">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>142.4155006025573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>140.8587614152884</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4027833335613</v>
@@ -27558,7 +27558,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J4" t="n">
-        <v>47.21143454878033</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.34636041377521</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R4" t="n">
-        <v>150.8459592031442</v>
+        <v>146.2836725955014</v>
       </c>
       <c r="S4" t="n">
         <v>213.7659454939867</v>
       </c>
       <c r="T4" t="n">
-        <v>225.4323882309924</v>
+        <v>220.8701016233495</v>
       </c>
       <c r="U4" t="n">
-        <v>286.286945936951</v>
+        <v>282.2684838929392</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>221.1473687813943</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>59.80869847563716</v>
+        <v>66.68474421734859</v>
       </c>
       <c r="S5" t="n">
         <v>178.8437391585118</v>
@@ -27670,16 +27670,16 @@
         <v>217.2989483486666</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2397129655779</v>
+        <v>244.3636672238664</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X5" t="n">
-        <v>363.6746795891696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>130.578560245468</v>
+        <v>136.6349813347674</v>
       </c>
       <c r="H6" t="n">
-        <v>98.51643404639911</v>
+        <v>105.3924797881105</v>
       </c>
       <c r="I6" t="n">
-        <v>58.12582284093458</v>
+        <v>65.00186858264601</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.16646052351003</v>
+        <v>49.29041478179859</v>
       </c>
       <c r="S6" t="n">
-        <v>158.5224288518331</v>
+        <v>151.6463831101217</v>
       </c>
       <c r="T6" t="n">
         <v>197.3088320880702</v>
@@ -27752,13 +27752,13 @@
         <v>225.8947678817351</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G7" t="n">
         <v>167.396966721153</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.42158504966668</v>
+        <v>29.54553930795525</v>
       </c>
       <c r="R7" t="n">
-        <v>144.5280020686508</v>
+        <v>150.5844231579502</v>
       </c>
       <c r="S7" t="n">
-        <v>213.6645778031988</v>
+        <v>206.7885320614874</v>
       </c>
       <c r="T7" t="n">
-        <v>225.4075354325207</v>
+        <v>218.5314896908092</v>
       </c>
       <c r="U7" t="n">
         <v>286.2866286671833</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27871,7 @@
         <v>325.9128341950639</v>
       </c>
       <c r="I8" t="n">
-        <v>152.5467235296183</v>
+        <v>159.4227692713298</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.62832312804917</v>
+        <v>66.68474421734859</v>
       </c>
       <c r="S8" t="n">
         <v>178.8437391585118</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2989483486666</v>
+        <v>210.4229026069551</v>
       </c>
       <c r="U8" t="n">
         <v>251.2397129655779</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.6571379081559</v>
+        <v>160.4767625605679</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,10 +27938,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.6349813347674</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.16646052351003</v>
+        <v>49.29041478179859</v>
       </c>
       <c r="S9" t="n">
         <v>158.5224288518331</v>
@@ -27986,7 +27986,7 @@
         <v>197.3088320880702</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8947678817351</v>
+        <v>219.0187221400237</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>199.7165641141781</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.396966721153</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.42158504966668</v>
+        <v>29.54553930795525</v>
       </c>
       <c r="R10" t="n">
-        <v>150.5844231579502</v>
+        <v>144.5280020686508</v>
       </c>
       <c r="S10" t="n">
         <v>213.6645778031988</v>
@@ -28065,10 +28065,10 @@
         <v>225.4075354325207</v>
       </c>
       <c r="U10" t="n">
-        <v>280.2302075778839</v>
+        <v>279.4105829254719</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="C11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="D11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="E11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="F11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="G11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="H11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="I11" t="n">
-        <v>12.8329054785637</v>
+        <v>12.83290547856367</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="T11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="U11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="V11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="W11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="X11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="C13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="D13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="E13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="F13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="G13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="H13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="I13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="J13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="K13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="L13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="M13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="N13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="O13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="P13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="R13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="S13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="T13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="U13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="V13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="W13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="X13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="C14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="D14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="E14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="F14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="G14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="H14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="I14" t="n">
         <v>12.83290547856365</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="T14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="U14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="V14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="W14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="X14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="C16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="D16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="E16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="F16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="G16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="H16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="I16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="J16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="K16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="L16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="M16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="N16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="O16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="P16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="R16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="S16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="T16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="U16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="V16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="W16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="X16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.84834860587779</v>
+        <v>31.8483486058778</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="C17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="D17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="E17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="F17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="G17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="H17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="I17" t="n">
         <v>12.83290547856367</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="T17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="U17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="V17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="W17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="X17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="C19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="D19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="E19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="F19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="G19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="H19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="I19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="J19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="K19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587458</v>
       </c>
       <c r="L19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="M19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="N19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="O19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="P19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="R19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="S19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="T19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="U19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="V19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="W19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="X19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587792</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="C20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="D20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="E20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="F20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="G20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="H20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="I20" t="n">
         <v>12.83290547856365</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="T20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="U20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="V20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="W20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="X20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="C22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="D22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="E22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="F22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="G22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="H22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="I22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="J22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="K22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="L22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="M22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="N22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="O22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="P22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="R22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="S22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="T22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="U22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="V22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="W22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="X22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.84834860587781</v>
+        <v>31.84834860587779</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="C23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="D23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="E23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="F23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="G23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="H23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="I23" t="n">
-        <v>12.83290547856365</v>
+        <v>12.83290547856367</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="T23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="U23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="V23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="W23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="X23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="C25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="D25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="E25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="F25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="G25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="H25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="I25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="J25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587767</v>
       </c>
       <c r="K25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="L25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="M25" t="n">
-        <v>31.84834860587966</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="N25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="O25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="P25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="R25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="S25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="T25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="U25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="V25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="W25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="X25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.84834860587768</v>
+        <v>31.84834860587779</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="C26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="D26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="E26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="F26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="G26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="H26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="I26" t="n">
         <v>12.83290547856365</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="T26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="U26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="V26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="W26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="X26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="C28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="D28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="E28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="F28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="G28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="H28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="I28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="J28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="K28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="L28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="M28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="N28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="O28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="P28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="R28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="S28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="T28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="U28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="V28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="W28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="X28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.84834860587779</v>
+        <v>31.84834860587777</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="C29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="D29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="E29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="F29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="G29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="H29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="I29" t="n">
         <v>12.83290547856365</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="T29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="U29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="V29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="W29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="X29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="C31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="D31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="E31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="F31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="G31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="H31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="I31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="J31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="K31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="L31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="M31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="N31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="O31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="P31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="R31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="S31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="T31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="U31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="V31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="W31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="X31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.84834860587775</v>
+        <v>31.84834860587777</v>
       </c>
     </row>
     <row r="32">
@@ -29931,7 +29931,7 @@
         <v>32.63431339766234</v>
       </c>
       <c r="K34" t="n">
-        <v>32.63431339766234</v>
+        <v>13.515826092308</v>
       </c>
       <c r="L34" t="n">
         <v>32.63431339766234</v>
@@ -29940,7 +29940,7 @@
         <v>32.63431339766234</v>
       </c>
       <c r="N34" t="n">
-        <v>13.51582609230792</v>
+        <v>32.63431339766234</v>
       </c>
       <c r="O34" t="n">
         <v>32.63431339766234</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="C35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="D35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="E35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="F35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="G35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="H35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="I35" t="n">
         <v>12.83290547856365</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="T35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="U35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="V35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="W35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="X35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="Y35" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="C37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="D37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="E37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="F37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="G37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="H37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="I37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="J37" t="n">
-        <v>13.515826092308</v>
+        <v>13.51582609230471</v>
       </c>
       <c r="K37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="L37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="M37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="N37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="O37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="P37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="R37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="S37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="T37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="U37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="V37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="W37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="X37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.63431339766234</v>
+        <v>32.63431339766247</v>
       </c>
     </row>
     <row r="38">
@@ -30405,7 +30405,7 @@
         <v>32.63431339766247</v>
       </c>
       <c r="K40" t="n">
-        <v>32.63431339766247</v>
+        <v>13.51582609230465</v>
       </c>
       <c r="L40" t="n">
         <v>32.63431339766247</v>
@@ -30417,7 +30417,7 @@
         <v>32.63431339766247</v>
       </c>
       <c r="O40" t="n">
-        <v>13.51582609230468</v>
+        <v>32.63431339766247</v>
       </c>
       <c r="P40" t="n">
         <v>32.63431339766247</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="E41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="U41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="W41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="X41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="O43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="P43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="R43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="U43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="V43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="W43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="X43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.7859647917845756</v>
+        <v>0.7859647917846928</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="U44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="V44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="W44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="X44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="O46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="P46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="R46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="U46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="V46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="X46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.7859647917846146</v>
+        <v>0.7859647917846928</v>
       </c>
     </row>
   </sheetData>
@@ -31373,7 +31373,7 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>147.4073999482616</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N6" t="n">
         <v>138.2177578250447</v>
@@ -31382,7 +31382,7 @@
         <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>135.2992670998302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.44397697812161</v>
@@ -31610,16 +31610,16 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>147.4073999482616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
-        <v>135.2992670998302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.44397697812161</v>
@@ -31753,37 +31753,37 @@
         <v>5.1265931934853</v>
       </c>
       <c r="H11" t="n">
-        <v>52.50272254278133</v>
+        <v>52.50272254278134</v>
       </c>
       <c r="I11" t="n">
         <v>197.6429840918422</v>
       </c>
       <c r="J11" t="n">
-        <v>435.1131890555733</v>
+        <v>435.1131890555734</v>
       </c>
       <c r="K11" t="n">
-        <v>652.1218789358062</v>
+        <v>652.1218789358063</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0148553809321</v>
+        <v>809.0148553809322</v>
       </c>
       <c r="M11" t="n">
-        <v>900.1849070855762</v>
+        <v>900.1849070855764</v>
       </c>
       <c r="N11" t="n">
-        <v>914.7508399965665</v>
+        <v>914.7508399965666</v>
       </c>
       <c r="O11" t="n">
-        <v>863.7732789288469</v>
+        <v>863.773278928847</v>
       </c>
       <c r="P11" t="n">
-        <v>737.2105094646785</v>
+        <v>737.2105094646786</v>
       </c>
       <c r="Q11" t="n">
         <v>553.6143907229861</v>
       </c>
       <c r="R11" t="n">
-        <v>322.0333596902712</v>
+        <v>322.0333596902713</v>
       </c>
       <c r="S11" t="n">
         <v>116.8222423965464</v>
@@ -31792,7 +31792,7 @@
         <v>22.44166170448191</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4101274554788238</v>
+        <v>0.410127455478824</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.742969178948292</v>
+        <v>2.742969178948293</v>
       </c>
       <c r="H12" t="n">
         <v>26.49130759668483</v>
       </c>
       <c r="I12" t="n">
-        <v>94.43994760852674</v>
+        <v>94.43994760852677</v>
       </c>
       <c r="J12" t="n">
         <v>259.150434577742</v>
       </c>
       <c r="K12" t="n">
-        <v>442.9293695672775</v>
+        <v>442.9293695672777</v>
       </c>
       <c r="L12" t="n">
-        <v>595.5731982624352</v>
+        <v>595.5731982624353</v>
       </c>
       <c r="M12" t="n">
-        <v>695.0058309993107</v>
+        <v>537.1163602828719</v>
       </c>
       <c r="N12" t="n">
-        <v>713.4005672914684</v>
+        <v>713.4005672914685</v>
       </c>
       <c r="O12" t="n">
-        <v>219.487805683736</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>523.7868075133805</v>
+        <v>523.7868075133806</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>350.1376095794348</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.3047004262809</v>
       </c>
       <c r="S12" t="n">
-        <v>50.94944944230706</v>
+        <v>50.94944944230707</v>
       </c>
       <c r="T12" t="n">
         <v>11.05609068181351</v>
@@ -31911,31 +31911,31 @@
         <v>2.299613217323633</v>
       </c>
       <c r="H13" t="n">
-        <v>20.4456520594774</v>
+        <v>20.44565205947741</v>
       </c>
       <c r="I13" t="n">
-        <v>69.15564111733254</v>
+        <v>69.15564111733255</v>
       </c>
       <c r="J13" t="n">
-        <v>162.5826544647808</v>
+        <v>162.5826544647809</v>
       </c>
       <c r="K13" t="n">
         <v>267.1732447036002</v>
       </c>
       <c r="L13" t="n">
-        <v>341.8897686919154</v>
+        <v>341.8897686919155</v>
       </c>
       <c r="M13" t="n">
-        <v>360.4748246028308</v>
+        <v>360.4748246028309</v>
       </c>
       <c r="N13" t="n">
-        <v>351.9035389746249</v>
+        <v>351.903538974625</v>
       </c>
       <c r="O13" t="n">
         <v>325.0398754813442</v>
       </c>
       <c r="P13" t="n">
-        <v>278.1277658479418</v>
+        <v>278.1277658479419</v>
       </c>
       <c r="Q13" t="n">
         <v>192.5612485887999</v>
@@ -31944,13 +31944,13 @@
         <v>103.3989724807517</v>
       </c>
       <c r="S13" t="n">
-        <v>40.07598670554002</v>
+        <v>40.07598670554003</v>
       </c>
       <c r="T13" t="n">
-        <v>9.825620110382792</v>
+        <v>9.825620110382793</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1254334482176528</v>
+        <v>0.1254334482176529</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>94.43994760852678</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>259.1504345777421</v>
       </c>
       <c r="K15" t="n">
-        <v>364.3456247309891</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>467.5267895811593</v>
       </c>
       <c r="M15" t="n">
         <v>695.0058309993109</v>
@@ -32096,10 +32096,10 @@
         <v>523.7868075133807</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.1376095794348</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>170.3047004262809</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>50.94944944230708</v>
@@ -32312,31 +32312,31 @@
         <v>94.43994760852677</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.150434577742</v>
       </c>
       <c r="K18" t="n">
-        <v>442.9293695672777</v>
+        <v>327.8857954146457</v>
       </c>
       <c r="L18" t="n">
         <v>595.5731982624353</v>
       </c>
       <c r="M18" t="n">
-        <v>695.0058309993108</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>713.4005672914685</v>
       </c>
       <c r="O18" t="n">
-        <v>351.800613594811</v>
+        <v>652.62214495793</v>
       </c>
       <c r="P18" t="n">
         <v>523.7868075133806</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.1376095794348</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.3047004262809</v>
       </c>
       <c r="S18" t="n">
         <v>50.94944944230707</v>
@@ -32549,7 +32549,7 @@
         <v>94.43994760852678</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.1504345777421</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32558,7 +32558,7 @@
         <v>595.5731982624354</v>
       </c>
       <c r="M21" t="n">
-        <v>695.0058309993109</v>
+        <v>332.1783903623042</v>
       </c>
       <c r="N21" t="n">
         <v>713.4005672914686</v>
@@ -32570,10 +32570,10 @@
         <v>523.7868075133807</v>
       </c>
       <c r="Q21" t="n">
-        <v>144.2481733158209</v>
+        <v>350.1376095794348</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.3047004262809</v>
       </c>
       <c r="S21" t="n">
         <v>50.94944944230708</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.126593193485301</v>
+        <v>5.1265931934853</v>
       </c>
       <c r="H23" t="n">
-        <v>52.50272254278136</v>
+        <v>52.50272254278134</v>
       </c>
       <c r="I23" t="n">
-        <v>197.6429840918423</v>
+        <v>197.6429840918422</v>
       </c>
       <c r="J23" t="n">
-        <v>435.1131890555735</v>
+        <v>435.1131890555734</v>
       </c>
       <c r="K23" t="n">
-        <v>652.1218789358064</v>
+        <v>652.1218789358063</v>
       </c>
       <c r="L23" t="n">
-        <v>809.0148553809323</v>
+        <v>809.0148553809322</v>
       </c>
       <c r="M23" t="n">
-        <v>900.1849070855766</v>
+        <v>900.1849070855764</v>
       </c>
       <c r="N23" t="n">
-        <v>914.7508399965667</v>
+        <v>914.7508399965666</v>
       </c>
       <c r="O23" t="n">
-        <v>863.7732789288473</v>
+        <v>863.773278928847</v>
       </c>
       <c r="P23" t="n">
-        <v>737.2105094646787</v>
+        <v>737.2105094646786</v>
       </c>
       <c r="Q23" t="n">
-        <v>553.6143907229862</v>
+        <v>553.6143907229861</v>
       </c>
       <c r="R23" t="n">
         <v>322.0333596902713</v>
@@ -32737,7 +32737,7 @@
         <v>116.8222423965464</v>
       </c>
       <c r="T23" t="n">
-        <v>22.44166170448192</v>
+        <v>22.44166170448191</v>
       </c>
       <c r="U23" t="n">
         <v>0.410127455478824</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.742969178948294</v>
+        <v>2.742969178948293</v>
       </c>
       <c r="H24" t="n">
-        <v>26.49130759668484</v>
+        <v>26.49130759668483</v>
       </c>
       <c r="I24" t="n">
-        <v>94.43994760852678</v>
+        <v>94.43994760852677</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>442.9293695672777</v>
       </c>
       <c r="L24" t="n">
-        <v>365.0585655365043</v>
+        <v>595.5731982624353</v>
       </c>
       <c r="M24" t="n">
-        <v>695.0058309993109</v>
+        <v>573.840864241829</v>
       </c>
       <c r="N24" t="n">
-        <v>713.4005672914686</v>
+        <v>713.4005672914685</v>
       </c>
       <c r="O24" t="n">
-        <v>652.6221449579301</v>
+        <v>652.62214495793</v>
       </c>
       <c r="P24" t="n">
-        <v>523.7868075133807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>350.1376095794348</v>
       </c>
       <c r="R24" t="n">
-        <v>170.3047004262809</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>50.94944944230708</v>
+        <v>50.94944944230707</v>
       </c>
       <c r="T24" t="n">
         <v>11.05609068181351</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1804584986150194</v>
+        <v>0.1804584986150193</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.299613217323634</v>
+        <v>2.299613217323633</v>
       </c>
       <c r="H25" t="n">
         <v>20.44565205947741</v>
       </c>
       <c r="I25" t="n">
-        <v>69.15564111733256</v>
+        <v>69.15564111733255</v>
       </c>
       <c r="J25" t="n">
         <v>162.5826544647809</v>
       </c>
       <c r="K25" t="n">
-        <v>267.1732447036003</v>
+        <v>267.1732447036002</v>
       </c>
       <c r="L25" t="n">
         <v>341.8897686919155</v>
       </c>
       <c r="M25" t="n">
-        <v>360.474824602831</v>
+        <v>360.4748246028309</v>
       </c>
       <c r="N25" t="n">
         <v>351.903538974625</v>
       </c>
       <c r="O25" t="n">
-        <v>325.0398754813443</v>
+        <v>325.0398754813442</v>
       </c>
       <c r="P25" t="n">
         <v>278.1277658479419</v>
@@ -32892,10 +32892,10 @@
         <v>103.3989724807517</v>
       </c>
       <c r="S25" t="n">
-        <v>40.07598670554004</v>
+        <v>40.07598670554003</v>
       </c>
       <c r="T25" t="n">
-        <v>9.825620110382795</v>
+        <v>9.825620110382793</v>
       </c>
       <c r="U25" t="n">
         <v>0.1254334482176529</v>
@@ -33026,16 +33026,16 @@
         <v>259.1504345777421</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>442.9293695672777</v>
       </c>
       <c r="L27" t="n">
-        <v>232.745757625429</v>
+        <v>595.5731982624354</v>
       </c>
       <c r="M27" t="n">
-        <v>695.0058309993109</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>713.4005672914686</v>
+        <v>598.3569931388358</v>
       </c>
       <c r="O27" t="n">
         <v>652.6221449579301</v>
@@ -33260,22 +33260,22 @@
         <v>94.43994760852678</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.1504345777421</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>442.9293695672777</v>
       </c>
       <c r="L30" t="n">
-        <v>365.0585655365043</v>
+        <v>595.5731982624354</v>
       </c>
       <c r="M30" t="n">
-        <v>695.0058309993109</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>713.4005672914686</v>
       </c>
       <c r="O30" t="n">
-        <v>652.6221449579301</v>
+        <v>537.5785708052974</v>
       </c>
       <c r="P30" t="n">
         <v>523.7868075133807</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>442.9293695672777</v>
       </c>
       <c r="L33" t="n">
-        <v>365.0585655365043</v>
+        <v>595.5731982624354</v>
       </c>
       <c r="M33" t="n">
         <v>695.0058309993109</v>
       </c>
       <c r="N33" t="n">
-        <v>713.4005672914686</v>
+        <v>687.8239044861043</v>
       </c>
       <c r="O33" t="n">
-        <v>652.6221449579301</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>523.7868075133807</v>
@@ -33734,10 +33734,10 @@
         <v>94.43994760852678</v>
       </c>
       <c r="J36" t="n">
-        <v>215.8284954025975</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>442.9293695672777</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>595.5731982624354</v>
@@ -33752,13 +33752,13 @@
         <v>652.6221449579301</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>293.2721747874496</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>350.1376095794348</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.3047004262809</v>
       </c>
       <c r="S36" t="n">
         <v>50.94944944230708</v>
@@ -33971,31 +33971,31 @@
         <v>94.43994760852678</v>
       </c>
       <c r="J39" t="n">
-        <v>215.8284954025975</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>442.9293695672777</v>
       </c>
       <c r="L39" t="n">
-        <v>595.5731982624354</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>695.0058309993109</v>
       </c>
       <c r="N39" t="n">
-        <v>713.4005672914686</v>
+        <v>634.81682245518</v>
       </c>
       <c r="O39" t="n">
         <v>652.6221449579301</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>523.7868075133807</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>350.1376095794348</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.3047004262809</v>
       </c>
       <c r="S39" t="n">
         <v>50.94944944230708</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>442.9293695672777</v>
       </c>
       <c r="L42" t="n">
-        <v>365.0585655365043</v>
+        <v>595.5731982624354</v>
       </c>
       <c r="M42" t="n">
         <v>695.0058309993109</v>
       </c>
       <c r="N42" t="n">
-        <v>713.4005672914686</v>
+        <v>687.8239044861043</v>
       </c>
       <c r="O42" t="n">
-        <v>652.6221449579301</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>523.7868075133807</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.126593193485301</v>
+        <v>5.1265931934853</v>
       </c>
       <c r="H44" t="n">
-        <v>52.50272254278136</v>
+        <v>52.50272254278134</v>
       </c>
       <c r="I44" t="n">
-        <v>197.6429840918423</v>
+        <v>197.6429840918422</v>
       </c>
       <c r="J44" t="n">
-        <v>435.1131890555735</v>
+        <v>435.1131890555734</v>
       </c>
       <c r="K44" t="n">
-        <v>652.1218789358064</v>
+        <v>652.1218789358063</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0148553809323</v>
+        <v>809.0148553809322</v>
       </c>
       <c r="M44" t="n">
-        <v>900.1849070855766</v>
+        <v>900.1849070855764</v>
       </c>
       <c r="N44" t="n">
-        <v>914.7508399965667</v>
+        <v>914.7508399965666</v>
       </c>
       <c r="O44" t="n">
-        <v>863.7732789288473</v>
+        <v>863.773278928847</v>
       </c>
       <c r="P44" t="n">
-        <v>737.2105094646787</v>
+        <v>737.2105094646786</v>
       </c>
       <c r="Q44" t="n">
-        <v>553.6143907229862</v>
+        <v>553.6143907229861</v>
       </c>
       <c r="R44" t="n">
         <v>322.0333596902713</v>
@@ -34396,7 +34396,7 @@
         <v>116.8222423965464</v>
       </c>
       <c r="T44" t="n">
-        <v>22.44166170448192</v>
+        <v>22.44166170448191</v>
       </c>
       <c r="U44" t="n">
         <v>0.410127455478824</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.742969178948294</v>
+        <v>2.742969178948293</v>
       </c>
       <c r="H45" t="n">
-        <v>26.49130759668484</v>
+        <v>26.49130759668483</v>
       </c>
       <c r="I45" t="n">
-        <v>94.43994760852678</v>
+        <v>94.43994760852677</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.150434577742</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>365.0585655365043</v>
+        <v>232.7457576254295</v>
       </c>
       <c r="M45" t="n">
-        <v>695.0058309993109</v>
+        <v>695.0058309993108</v>
       </c>
       <c r="N45" t="n">
-        <v>713.4005672914686</v>
+        <v>713.4005672914685</v>
       </c>
       <c r="O45" t="n">
-        <v>652.6221449579301</v>
+        <v>652.62214495793</v>
       </c>
       <c r="P45" t="n">
-        <v>523.7868075133807</v>
+        <v>523.7868075133806</v>
       </c>
       <c r="Q45" t="n">
         <v>350.1376095794348</v>
@@ -34472,13 +34472,13 @@
         <v>170.3047004262809</v>
       </c>
       <c r="S45" t="n">
-        <v>50.94944944230708</v>
+        <v>50.94944944230707</v>
       </c>
       <c r="T45" t="n">
         <v>11.05609068181351</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1804584986150194</v>
+        <v>0.1804584986150193</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,31 +34515,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.299613217323634</v>
+        <v>2.299613217323633</v>
       </c>
       <c r="H46" t="n">
         <v>20.44565205947741</v>
       </c>
       <c r="I46" t="n">
-        <v>69.15564111733256</v>
+        <v>69.15564111733255</v>
       </c>
       <c r="J46" t="n">
         <v>162.5826544647809</v>
       </c>
       <c r="K46" t="n">
-        <v>267.1732447036003</v>
+        <v>267.1732447036002</v>
       </c>
       <c r="L46" t="n">
         <v>341.8897686919155</v>
       </c>
       <c r="M46" t="n">
-        <v>360.474824602831</v>
+        <v>360.4748246028309</v>
       </c>
       <c r="N46" t="n">
         <v>351.903538974625</v>
       </c>
       <c r="O46" t="n">
-        <v>325.0398754813443</v>
+        <v>325.0398754813442</v>
       </c>
       <c r="P46" t="n">
         <v>278.1277658479419</v>
@@ -34551,10 +34551,10 @@
         <v>103.3989724807517</v>
       </c>
       <c r="S46" t="n">
-        <v>40.07598670554004</v>
+        <v>40.07598670554003</v>
       </c>
       <c r="T46" t="n">
-        <v>9.825620110382795</v>
+        <v>9.825620110382793</v>
       </c>
       <c r="U46" t="n">
         <v>0.1254334482176529</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O2" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="P2" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>4.562286607642875</v>
@@ -34860,10 +34860,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>4.562286607642875</v>
@@ -34872,7 +34872,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="P4" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>4.417872862493068</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>2.180352849250227</v>
@@ -34948,10 +34948,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
-        <v>5.273366026243322</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
@@ -35030,7 +35030,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>1.324859685499973</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P7" t="n">
         <v>6.876045741711437</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>4.417872862493068</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
         <v>2.180352849250227</v>
@@ -35185,13 +35185,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>5.273366026243322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
-        <v>1.324859685499973</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,16 +35331,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="O10" t="n">
         <v>6.876045741711437</v>
@@ -35410,22 +35410,22 @@
         <v>254.0672845288871</v>
       </c>
       <c r="K11" t="n">
-        <v>432.0320278908256</v>
+        <v>432.0320278908258</v>
       </c>
       <c r="L11" t="n">
-        <v>573.2484404109448</v>
+        <v>573.248440410945</v>
       </c>
       <c r="M11" t="n">
-        <v>669.8386738583035</v>
+        <v>669.8386738583037</v>
       </c>
       <c r="N11" t="n">
         <v>685.3377763999756</v>
       </c>
       <c r="O11" t="n">
-        <v>633.6750675071602</v>
+        <v>633.6750675071603</v>
       </c>
       <c r="P11" t="n">
-        <v>505.9775137094089</v>
+        <v>505.977513709409</v>
       </c>
       <c r="Q11" t="n">
         <v>331.3087008485365</v>
@@ -35489,28 +35489,28 @@
         <v>132.3128079110753</v>
       </c>
       <c r="K12" t="n">
-        <v>305.0879305929186</v>
+        <v>305.0879305929187</v>
       </c>
       <c r="L12" t="n">
-        <v>457.018818482561</v>
+        <v>457.0188184825611</v>
       </c>
       <c r="M12" t="n">
-        <v>552.8717970772923</v>
+        <v>394.9823263608537</v>
       </c>
       <c r="N12" t="n">
-        <v>582.0588552081351</v>
+        <v>582.0588552081352</v>
       </c>
       <c r="O12" t="n">
-        <v>76.89156123929162</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>389.8124000990503</v>
+        <v>389.8124000990504</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.1558354934132</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.62519646231695</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>101.0718229539858</v>
+        <v>101.0718229539859</v>
       </c>
       <c r="K13" t="n">
-        <v>276.7521014835951</v>
+        <v>276.7521014835952</v>
       </c>
       <c r="L13" t="n">
-        <v>401.3281425581093</v>
+        <v>401.3281425581094</v>
       </c>
       <c r="M13" t="n">
-        <v>431.9070501705492</v>
+        <v>431.9070501705493</v>
       </c>
       <c r="N13" t="n">
-        <v>427.8840599597313</v>
+        <v>427.8840599597314</v>
       </c>
       <c r="O13" t="n">
-        <v>381.4733520012616</v>
+        <v>381.4733520012617</v>
       </c>
       <c r="P13" t="n">
         <v>307.2546737187131</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.2475539429832</v>
+        <v>138.2475539429833</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>132.3128079110754</v>
       </c>
       <c r="K15" t="n">
-        <v>226.5041857566301</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>328.9724098012851</v>
       </c>
       <c r="M15" t="n">
         <v>552.8717970772925</v>
@@ -35744,10 +35744,10 @@
         <v>389.8124000990505</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.1558354934133</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>24.62519646231698</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>276.7521014835953</v>
       </c>
       <c r="L16" t="n">
-        <v>401.3281425581094</v>
+        <v>401.3281425581095</v>
       </c>
       <c r="M16" t="n">
         <v>431.9070501705494</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.3128079110753</v>
       </c>
       <c r="K18" t="n">
-        <v>305.0879305929187</v>
+        <v>190.0443564402867</v>
       </c>
       <c r="L18" t="n">
         <v>457.0188184825611</v>
       </c>
       <c r="M18" t="n">
-        <v>552.8717970772925</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>582.0588552081352</v>
       </c>
       <c r="O18" t="n">
-        <v>209.2043691503665</v>
+        <v>510.0259005134856</v>
       </c>
       <c r="P18" t="n">
         <v>389.8124000990504</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.1558354934132</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.62519646231695</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.0718229539859</v>
+        <v>101.071822953986</v>
       </c>
       <c r="K19" t="n">
-        <v>276.7521014835952</v>
+        <v>276.752101483592</v>
       </c>
       <c r="L19" t="n">
-        <v>401.3281425581094</v>
+        <v>401.3281425581096</v>
       </c>
       <c r="M19" t="n">
-        <v>431.9070501705493</v>
+        <v>431.9070501705494</v>
       </c>
       <c r="N19" t="n">
-        <v>427.8840599597313</v>
+        <v>427.8840599597315</v>
       </c>
       <c r="O19" t="n">
-        <v>381.4733520012617</v>
+        <v>381.4733520012618</v>
       </c>
       <c r="P19" t="n">
-        <v>307.2546737187131</v>
+        <v>307.2546737187133</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.2475539429833</v>
+        <v>138.2475539429834</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.3128079110754</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>457.0188184825612</v>
       </c>
       <c r="M21" t="n">
-        <v>552.8717970772925</v>
+        <v>190.0443564402859</v>
       </c>
       <c r="N21" t="n">
         <v>582.0588552081354</v>
@@ -36218,10 +36218,10 @@
         <v>389.8124000990505</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.266399229799381</v>
+        <v>210.1558354934133</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.62519646231698</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>101.0718229539859</v>
       </c>
       <c r="K22" t="n">
-        <v>276.7521014835953</v>
+        <v>276.7521014835952</v>
       </c>
       <c r="L22" t="n">
         <v>401.3281425581095</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>254.0672845288872</v>
+        <v>254.0672845288871</v>
       </c>
       <c r="K23" t="n">
-        <v>432.0320278908259</v>
+        <v>432.0320278908258</v>
       </c>
       <c r="L23" t="n">
         <v>573.248440410945</v>
       </c>
       <c r="M23" t="n">
-        <v>669.8386738583039</v>
+        <v>669.8386738583037</v>
       </c>
       <c r="N23" t="n">
-        <v>685.3377763999758</v>
+        <v>685.3377763999756</v>
       </c>
       <c r="O23" t="n">
-        <v>633.6750675071605</v>
+        <v>633.6750675071603</v>
       </c>
       <c r="P23" t="n">
-        <v>505.9775137094092</v>
+        <v>505.977513709409</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.3087008485367</v>
+        <v>331.3087008485365</v>
       </c>
       <c r="R23" t="n">
-        <v>106.4478218761392</v>
+        <v>106.4478218761391</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>305.0879305929187</v>
       </c>
       <c r="L24" t="n">
-        <v>226.5041857566301</v>
+        <v>457.0188184825611</v>
       </c>
       <c r="M24" t="n">
-        <v>552.8717970772925</v>
+        <v>431.7068303198107</v>
       </c>
       <c r="N24" t="n">
-        <v>582.0588552081354</v>
+        <v>582.0588552081352</v>
       </c>
       <c r="O24" t="n">
-        <v>510.0259005134857</v>
+        <v>510.0259005134856</v>
       </c>
       <c r="P24" t="n">
-        <v>389.8124000990505</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.1558354934133</v>
+        <v>210.1558354934132</v>
       </c>
       <c r="R24" t="n">
-        <v>24.62519646231698</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>101.0718229539858</v>
       </c>
       <c r="K25" t="n">
-        <v>276.7521014835951</v>
+        <v>276.7521014835952</v>
       </c>
       <c r="L25" t="n">
-        <v>401.3281425581093</v>
+        <v>401.3281425581094</v>
       </c>
       <c r="M25" t="n">
-        <v>431.9070501705513</v>
+        <v>431.9070501705493</v>
       </c>
       <c r="N25" t="n">
         <v>427.8840599597313</v>
       </c>
       <c r="O25" t="n">
-        <v>381.4733520012616</v>
+        <v>381.4733520012617</v>
       </c>
       <c r="P25" t="n">
-        <v>307.254673718713</v>
+        <v>307.2546737187131</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.2475539429832</v>
+        <v>138.2475539429833</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>132.3128079110754</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>305.0879305929187</v>
       </c>
       <c r="L27" t="n">
-        <v>94.19137784555475</v>
+        <v>457.0188184825612</v>
       </c>
       <c r="M27" t="n">
-        <v>552.8717970772925</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>582.0588552081354</v>
+        <v>467.0152810555026</v>
       </c>
       <c r="O27" t="n">
         <v>510.0259005134857</v>
@@ -36756,7 +36756,7 @@
         <v>276.7521014835952</v>
       </c>
       <c r="L28" t="n">
-        <v>401.3281425581095</v>
+        <v>401.3281425581094</v>
       </c>
       <c r="M28" t="n">
         <v>431.9070501705494</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.3128079110754</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>305.0879305929187</v>
       </c>
       <c r="L30" t="n">
-        <v>226.5041857566301</v>
+        <v>457.0188184825612</v>
       </c>
       <c r="M30" t="n">
-        <v>552.8717970772925</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>582.0588552081354</v>
       </c>
       <c r="O30" t="n">
-        <v>510.0259005134857</v>
+        <v>394.982326360853</v>
       </c>
       <c r="P30" t="n">
         <v>389.8124000990505</v>
@@ -36993,13 +36993,13 @@
         <v>276.7521014835952</v>
       </c>
       <c r="L31" t="n">
-        <v>401.3281425581094</v>
+        <v>401.3281425581095</v>
       </c>
       <c r="M31" t="n">
-        <v>431.9070501705493</v>
+        <v>431.9070501705494</v>
       </c>
       <c r="N31" t="n">
-        <v>427.8840599597313</v>
+        <v>427.8840599597314</v>
       </c>
       <c r="O31" t="n">
         <v>381.4733520012617</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>305.0879305929187</v>
       </c>
       <c r="L33" t="n">
-        <v>226.5041857566301</v>
+        <v>457.0188184825612</v>
       </c>
       <c r="M33" t="n">
         <v>552.8717970772925</v>
       </c>
       <c r="N33" t="n">
-        <v>582.0588552081354</v>
+        <v>556.482192402771</v>
       </c>
       <c r="O33" t="n">
-        <v>510.0259005134857</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>389.8124000990505</v>
@@ -37227,7 +37227,7 @@
         <v>101.8577877457705</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5380662753798</v>
+        <v>258.4195789700254</v>
       </c>
       <c r="L34" t="n">
         <v>402.114107349894</v>
@@ -37236,7 +37236,7 @@
         <v>432.6930149623339</v>
       </c>
       <c r="N34" t="n">
-        <v>409.5515374461615</v>
+        <v>428.6700247515159</v>
       </c>
       <c r="O34" t="n">
         <v>382.2593167930463</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.99086873593085</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>305.0879305929187</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>457.0188184825612</v>
@@ -37400,13 +37400,13 @@
         <v>510.0259005134857</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>159.2977673731193</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.1558354934133</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.62519646231698</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>82.73930044041612</v>
+        <v>82.73930044041282</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5380662753798</v>
+        <v>277.5380662753799</v>
       </c>
       <c r="L37" t="n">
-        <v>402.114107349894</v>
+        <v>402.1141073498941</v>
       </c>
       <c r="M37" t="n">
-        <v>432.6930149623339</v>
+        <v>432.6930149623341</v>
       </c>
       <c r="N37" t="n">
-        <v>428.6700247515159</v>
+        <v>428.6700247515161</v>
       </c>
       <c r="O37" t="n">
-        <v>382.2593167930463</v>
+        <v>382.2593167930464</v>
       </c>
       <c r="P37" t="n">
-        <v>308.0406385104977</v>
+        <v>308.0406385104978</v>
       </c>
       <c r="Q37" t="n">
-        <v>139.0335187347679</v>
+        <v>139.033518734768</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.99086873593085</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>305.0879305929187</v>
       </c>
       <c r="L39" t="n">
-        <v>457.0188184825612</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>552.8717970772925</v>
       </c>
       <c r="N39" t="n">
-        <v>582.0588552081354</v>
+        <v>503.4751103718468</v>
       </c>
       <c r="O39" t="n">
         <v>510.0259005134857</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>389.8124000990505</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.1558354934133</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.62519646231698</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.8577877457706</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5380662753799</v>
+        <v>258.4195789700221</v>
       </c>
       <c r="L40" t="n">
         <v>402.1141073498941</v>
@@ -37713,7 +37713,7 @@
         <v>428.6700247515161</v>
       </c>
       <c r="O40" t="n">
-        <v>363.1408294876886</v>
+        <v>382.2593167930464</v>
       </c>
       <c r="P40" t="n">
         <v>308.0406385104978</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>305.0879305929187</v>
       </c>
       <c r="L42" t="n">
-        <v>226.5041857566301</v>
+        <v>457.0188184825612</v>
       </c>
       <c r="M42" t="n">
         <v>552.8717970772925</v>
       </c>
       <c r="N42" t="n">
-        <v>582.0588552081354</v>
+        <v>556.482192402771</v>
       </c>
       <c r="O42" t="n">
-        <v>510.0259005134857</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>389.8124000990505</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.00943913989269</v>
+        <v>70.00943913989281</v>
       </c>
       <c r="K43" t="n">
-        <v>245.689717669502</v>
+        <v>245.6897176695021</v>
       </c>
       <c r="L43" t="n">
-        <v>370.2657587440162</v>
+        <v>370.2657587440164</v>
       </c>
       <c r="M43" t="n">
-        <v>400.8446663564562</v>
+        <v>400.8446663564563</v>
       </c>
       <c r="N43" t="n">
-        <v>396.8216761456382</v>
+        <v>396.8216761456383</v>
       </c>
       <c r="O43" t="n">
-        <v>350.4109681871685</v>
+        <v>350.4109681871686</v>
       </c>
       <c r="P43" t="n">
-        <v>276.1922899046199</v>
+        <v>276.1922899046201</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.1851701288901</v>
+        <v>107.1851701288902</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>254.0672845288872</v>
+        <v>254.0672845288871</v>
       </c>
       <c r="K44" t="n">
-        <v>432.0320278908259</v>
+        <v>432.0320278908258</v>
       </c>
       <c r="L44" t="n">
         <v>573.248440410945</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8386738583039</v>
+        <v>669.8386738583037</v>
       </c>
       <c r="N44" t="n">
-        <v>685.3377763999758</v>
+        <v>685.3377763999756</v>
       </c>
       <c r="O44" t="n">
-        <v>633.6750675071605</v>
+        <v>633.6750675071603</v>
       </c>
       <c r="P44" t="n">
-        <v>505.9775137094092</v>
+        <v>505.977513709409</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.3087008485367</v>
+        <v>331.3087008485365</v>
       </c>
       <c r="R44" t="n">
-        <v>106.4478218761392</v>
+        <v>106.4478218761391</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.3128079110753</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>226.5041857566301</v>
+        <v>94.19137784555537</v>
       </c>
       <c r="M45" t="n">
         <v>552.8717970772925</v>
       </c>
       <c r="N45" t="n">
-        <v>582.0588552081354</v>
+        <v>582.0588552081352</v>
       </c>
       <c r="O45" t="n">
-        <v>510.0259005134857</v>
+        <v>510.0259005134856</v>
       </c>
       <c r="P45" t="n">
-        <v>389.8124000990505</v>
+        <v>389.8124000990504</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.1558354934133</v>
+        <v>210.1558354934132</v>
       </c>
       <c r="R45" t="n">
-        <v>24.62519646231698</v>
+        <v>24.62519646231695</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>70.00943913989272</v>
+        <v>70.00943913989278</v>
       </c>
       <c r="K46" t="n">
-        <v>245.689717669502</v>
+        <v>245.6897176695021</v>
       </c>
       <c r="L46" t="n">
-        <v>370.2657587440163</v>
+        <v>370.2657587440164</v>
       </c>
       <c r="M46" t="n">
         <v>400.8446663564562</v>
@@ -38190,10 +38190,10 @@
         <v>350.4109681871686</v>
       </c>
       <c r="P46" t="n">
-        <v>276.19228990462</v>
+        <v>276.1922899046201</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.1851701288901</v>
+        <v>107.1851701288902</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
